--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>STRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E8" s="3">
         <v>5800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>11500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>5900</v>
       </c>
       <c r="N8" s="3">
         <v>5900</v>
       </c>
       <c r="O8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="P8" s="3">
         <v>6400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="E9" s="3">
         <v>1800</v>
       </c>
       <c r="F9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>2400</v>
       </c>
       <c r="L9" s="3">
         <v>2400</v>
       </c>
       <c r="M9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N9" s="3">
         <v>2600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="3">
         <v>4000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +894,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>800</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1000</v>
       </c>
       <c r="H12" s="3">
         <v>1000</v>
       </c>
       <c r="I12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="3">
         <v>2300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,26 +986,29 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -998,8 +1018,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3">
         <v>-200</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E17" s="3">
         <v>5800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,13 +1211,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
@@ -1205,69 +1239,75 @@
         <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2500</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1000</v>
       </c>
       <c r="L21" s="3">
         <v>1000</v>
       </c>
       <c r="M21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1287,10 +1327,10 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1310,52 +1350,58 @@
       <c r="P22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1381,11 +1427,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-5900</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5800</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5800</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,11 +1649,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1600,11 +1661,11 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,13 +1773,16 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
@@ -1733,69 +1803,75 @@
         <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>4700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>4700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E41" s="3">
         <v>1200</v>
       </c>
       <c r="F41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>4200</v>
       </c>
       <c r="G43" s="3">
         <v>4200</v>
       </c>
       <c r="H43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,122 +2239,131 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1800</v>
       </c>
       <c r="L45" s="3">
         <v>1800</v>
       </c>
       <c r="M45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N45" s="3">
         <v>1600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E46" s="3">
         <v>5400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>9200</v>
       </c>
       <c r="N46" s="3">
         <v>9200</v>
       </c>
       <c r="O46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="P46" s="3">
         <v>11900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
-      </c>
-      <c r="E47" s="3">
-        <v>300</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
       </c>
       <c r="G47" s="3">
+        <v>300</v>
+      </c>
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>600</v>
-      </c>
-      <c r="I47" s="3">
-        <v>700</v>
       </c>
       <c r="J47" s="3">
         <v>700</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>10</v>
+      <c r="K47" s="3">
+        <v>700</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>10</v>
@@ -2269,14 +2374,17 @@
       <c r="N47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2290,81 +2398,87 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E49" s="3">
         <v>24600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>24100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>23500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>24600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>26400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>26100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>25900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>25700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>26000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>27100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
       </c>
       <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>600</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
       </c>
       <c r="L52" s="3">
+        <v>600</v>
+      </c>
+      <c r="M52" s="3">
         <v>700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>600</v>
       </c>
       <c r="N52" s="3">
         <v>600</v>
       </c>
       <c r="O52" s="3">
+        <v>600</v>
+      </c>
+      <c r="P52" s="3">
         <v>700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E54" s="3">
         <v>31300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>31600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>36100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>38100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>41600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,63 +2749,67 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1100</v>
       </c>
       <c r="P57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E58" s="3">
         <v>3500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
@@ -2699,104 +2833,113 @@
         <v>600</v>
       </c>
       <c r="N58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>700</v>
       </c>
       <c r="P58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E59" s="3">
         <v>8800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E60" s="3">
         <v>12900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>12100</v>
       </c>
       <c r="G60" s="3">
         <v>12100</v>
       </c>
       <c r="H60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I60" s="3">
         <v>10000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,43 +2947,46 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>3100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2851,40 +2997,43 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E66" s="3">
         <v>13000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>16500</v>
       </c>
       <c r="F66" s="3">
         <v>16500</v>
       </c>
       <c r="G66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H66" s="3">
         <v>16900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3174,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>8700</v>
@@ -3192,7 +3360,7 @@
         <v>8700</v>
       </c>
       <c r="K70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="L70" s="3">
         <v>8800</v>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-77000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-76800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-76200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-76600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-73500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-72800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-71300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-72200</v>
       </c>
       <c r="M72" s="3">
         <v>-72200</v>
       </c>
       <c r="N72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="O72" s="3">
         <v>-71100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>4700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,40 +3826,41 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
       </c>
       <c r="F83" s="3">
+        <v>300</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
       </c>
       <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>800</v>
       </c>
       <c r="N83" s="3">
         <v>800</v>
@@ -3670,10 +3869,13 @@
         <v>800</v>
       </c>
       <c r="P83" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>3400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3993,13 +4214,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,34 +4313,37 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-900</v>
+        <v>-600</v>
       </c>
       <c r="E94" s="3">
         <v>-900</v>
       </c>
       <c r="F94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-500</v>
       </c>
       <c r="L94" s="3">
         <v>-500</v>
@@ -4122,16 +4352,19 @@
         <v>-500</v>
       </c>
       <c r="N94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,19 +4567,22 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-200</v>
       </c>
       <c r="G100" s="3">
         <v>-200</v>
@@ -4345,31 +4591,34 @@
         <v>-200</v>
       </c>
       <c r="I100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>STRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E8" s="3">
         <v>4800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J8" s="3">
         <v>5400</v>
       </c>
-      <c r="H8" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5400</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>11500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>5900</v>
       </c>
       <c r="O8" s="3">
         <v>5900</v>
       </c>
       <c r="P8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Q8" s="3">
         <v>6400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
         <v>2300</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1800</v>
       </c>
       <c r="F9" s="3">
         <v>1800</v>
       </c>
       <c r="G9" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="H9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2400</v>
       </c>
       <c r="M9" s="3">
         <v>2400</v>
       </c>
       <c r="N9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O9" s="3">
         <v>2600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
         <v>2500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3000</v>
       </c>
-      <c r="G10" s="3">
-        <v>3800</v>
-      </c>
       <c r="H10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I10" s="3">
         <v>3700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="G12" s="3">
-        <v>800</v>
-      </c>
       <c r="H12" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="I12" s="3">
         <v>1000</v>
       </c>
       <c r="J12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,29 +1005,32 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1021,8 +1040,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1030,14 +1049,17 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-200</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>7100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="G17" s="3">
-        <v>4900</v>
-      </c>
       <c r="H17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I17" s="3">
         <v>8500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
-        <v>500</v>
-      </c>
       <c r="H18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1242,77 +1275,83 @@
         <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
-      </c>
       <c r="G21" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2500</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1000</v>
       </c>
       <c r="M21" s="3">
         <v>1000</v>
       </c>
       <c r="N21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1330,10 +1369,10 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1353,60 +1392,66 @@
       <c r="Q22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
-        <v>300</v>
-      </c>
       <c r="H23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1418,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1430,11 +1475,11 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-5900</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
-        <v>300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5800</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
-        <v>300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-3100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5800</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,13 +1692,16 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="3">
+        <v>4700</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
@@ -1653,10 +1713,10 @@
         <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1664,11 +1724,11 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -1806,72 +1875,78 @@
         <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1600</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1200</v>
       </c>
       <c r="F41" s="3">
         <v>1200</v>
       </c>
       <c r="G41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2237,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="E43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F43" s="3">
         <v>2900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3600</v>
-      </c>
-      <c r="G43" s="3">
-        <v>4200</v>
       </c>
       <c r="H43" s="3">
         <v>4200</v>
       </c>
       <c r="I43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J43" s="3">
         <v>2800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,131 +2337,140 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1800</v>
       </c>
       <c r="M45" s="3">
         <v>1800</v>
       </c>
       <c r="N45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O45" s="3">
         <v>1600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E46" s="3">
         <v>6600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>9200</v>
       </c>
       <c r="O46" s="3">
         <v>9200</v>
       </c>
       <c r="P46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>11900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>400</v>
-      </c>
-      <c r="F47" s="3">
-        <v>300</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
       </c>
       <c r="H47" s="3">
+        <v>300</v>
+      </c>
+      <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>700</v>
       </c>
       <c r="K47" s="3">
         <v>700</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>10</v>
+      <c r="L47" s="3">
+        <v>700</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>10</v>
@@ -2377,22 +2481,25 @@
       <c r="O47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2401,84 +2508,90 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24300</v>
+        <v>17700</v>
       </c>
       <c r="E49" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F49" s="3">
         <v>24600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>24100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>23500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>24600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>26400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>26100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>25900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>25700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>27100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
       </c>
       <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>600</v>
       </c>
       <c r="L52" s="3">
         <v>600</v>
       </c>
       <c r="M52" s="3">
+        <v>600</v>
+      </c>
+      <c r="N52" s="3">
         <v>700</v>
-      </c>
-      <c r="N52" s="3">
-        <v>600</v>
       </c>
       <c r="O52" s="3">
         <v>600</v>
       </c>
       <c r="P52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E54" s="3">
         <v>31700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>31300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>31600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>31700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>36100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>38100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>41600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,69 +2879,73 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
-        <v>600</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="J57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
+        <v>800</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P57" s="3">
         <v>900</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>900</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1100</v>
       </c>
       <c r="Q57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3800</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F58" s="3">
         <v>3500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
@@ -2836,162 +2969,174 @@
         <v>600</v>
       </c>
       <c r="O58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P58" s="3">
         <v>700</v>
       </c>
       <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10500</v>
+        <v>5600</v>
       </c>
       <c r="E59" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F59" s="3">
         <v>8800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E60" s="3">
         <v>15600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>12100</v>
       </c>
       <c r="H60" s="3">
         <v>12100</v>
       </c>
       <c r="I60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="J60" s="3">
         <v>10000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>3100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -3000,40 +3145,43 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15600</v>
+        <v>8600</v>
       </c>
       <c r="E66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="F66" s="3">
         <v>13000</v>
-      </c>
-      <c r="F66" s="3">
-        <v>16500</v>
       </c>
       <c r="G66" s="3">
         <v>16500</v>
       </c>
       <c r="H66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="I66" s="3">
         <v>16900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3345,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>8700</v>
@@ -3363,7 +3530,7 @@
         <v>8700</v>
       </c>
       <c r="L70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="M70" s="3">
         <v>8800</v>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-75700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-79400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-77000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-76800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-76200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-76600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-73500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-72800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-71300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-72200</v>
       </c>
       <c r="N72" s="3">
         <v>-72200</v>
       </c>
       <c r="O72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-71100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E76" s="3">
         <v>16000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,43 +4024,44 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
       </c>
       <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>600</v>
-      </c>
-      <c r="N83" s="3">
-        <v>800</v>
       </c>
       <c r="O83" s="3">
         <v>800</v>
@@ -3872,10 +4070,13 @@
         <v>800</v>
       </c>
       <c r="Q83" s="3">
+        <v>800</v>
+      </c>
+      <c r="R83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E89" s="3">
         <v>1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,13 +4394,14 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4217,13 +4437,16 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,37 +4542,40 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-900</v>
       </c>
       <c r="F94" s="3">
         <v>-900</v>
       </c>
       <c r="G94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-500</v>
       </c>
       <c r="M94" s="3">
         <v>-500</v>
@@ -4355,16 +4584,19 @@
         <v>-500</v>
       </c>
       <c r="O94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,22 +4812,25 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-200</v>
       </c>
       <c r="H100" s="3">
         <v>-200</v>
@@ -4594,31 +4839,34 @@
         <v>-200</v>
       </c>
       <c r="J100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>STRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,191 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E8" s="3">
         <v>2800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5800</v>
       </c>
-      <c r="G8" s="3">
-        <v>4800</v>
-      </c>
       <c r="H8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I8" s="3">
         <v>3200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>5900</v>
       </c>
       <c r="P8" s="3">
         <v>5900</v>
       </c>
       <c r="Q8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="R8" s="3">
         <v>6400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1800</v>
       </c>
       <c r="G9" s="3">
         <v>1800</v>
       </c>
       <c r="H9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2400</v>
       </c>
       <c r="N9" s="3">
         <v>2400</v>
       </c>
       <c r="O9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P9" s="3">
         <v>2600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,49 +857,52 @@
         <v>1500</v>
       </c>
       <c r="E10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L10" s="3">
+        <v>7100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q10" s="3">
         <v>3000</v>
       </c>
-      <c r="H10" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>7100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>4000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3700</v>
-      </c>
-      <c r="N10" s="3">
-        <v>4000</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="R10" s="3">
         <v>3300</v>
       </c>
-      <c r="P10" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>3300</v>
-      </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
-        <v>900</v>
-      </c>
       <c r="H12" s="3">
+        <v>700</v>
+      </c>
+      <c r="I12" s="3">
         <v>600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1000</v>
       </c>
       <c r="J12" s="3">
         <v>1000</v>
       </c>
       <c r="K12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,32 +1025,35 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>3700</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -1043,8 +1063,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1052,14 +1072,17 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5800</v>
       </c>
-      <c r="G17" s="3">
-        <v>5200</v>
-      </c>
       <c r="H17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I17" s="3">
         <v>4000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,19 +1278,20 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1278,75 +1312,81 @@
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2500</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1000</v>
       </c>
       <c r="N21" s="3">
         <v>1000</v>
       </c>
       <c r="O21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1372,10 +1412,10 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1395,67 +1435,73 @@
       <c r="R22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1463,11 +1509,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1478,11 +1524,11 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-5900</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5800</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5800</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,16 +1753,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>4700</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1716,10 +1777,10 @@
         <v>1000</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>10</v>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,19 +1912,22 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -1878,75 +1948,81 @@
         <v>100</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1200</v>
       </c>
       <c r="G41" s="3">
         <v>1200</v>
       </c>
       <c r="H41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,49 +2342,52 @@
         <v>1600</v>
       </c>
       <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3600</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4200</v>
       </c>
       <c r="I43" s="3">
         <v>4200</v>
       </c>
       <c r="J43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K43" s="3">
         <v>2800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,140 +2436,149 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1800</v>
       </c>
       <c r="N45" s="3">
         <v>1800</v>
       </c>
       <c r="O45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P45" s="3">
         <v>1600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E46" s="3">
         <v>8800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6500</v>
-      </c>
-      <c r="O46" s="3">
-        <v>9200</v>
       </c>
       <c r="P46" s="3">
         <v>9200</v>
       </c>
       <c r="Q46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="R46" s="3">
         <v>11900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>400</v>
-      </c>
-      <c r="G47" s="3">
-        <v>300</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
       </c>
       <c r="I47" s="3">
+        <v>300</v>
+      </c>
+      <c r="J47" s="3">
         <v>400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>600</v>
-      </c>
-      <c r="K47" s="3">
-        <v>700</v>
       </c>
       <c r="L47" s="3">
         <v>700</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>10</v>
+      <c r="M47" s="3">
+        <v>700</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>10</v>
@@ -2484,14 +2589,17 @@
       <c r="P47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,10 +2607,10 @@
         <v>600</v>
       </c>
       <c r="E48" s="3">
+        <v>600</v>
+      </c>
+      <c r="F48" s="3">
         <v>300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2511,87 +2619,93 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E49" s="3">
         <v>17700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>24600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>24100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>23500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>24600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>26400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>26100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>25900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>25700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>27100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
-      </c>
-      <c r="G52" s="3">
-        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>600</v>
       </c>
       <c r="M52" s="3">
         <v>600</v>
       </c>
       <c r="N52" s="3">
+        <v>600</v>
+      </c>
+      <c r="O52" s="3">
         <v>700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>600</v>
       </c>
       <c r="P52" s="3">
         <v>600</v>
       </c>
       <c r="Q52" s="3">
+        <v>600</v>
+      </c>
+      <c r="R52" s="3">
         <v>700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E54" s="3">
         <v>28500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>31700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>31300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>31700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>37300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>38100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>41600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,75 +3010,79 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1100</v>
       </c>
       <c r="R57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
@@ -2972,174 +3106,186 @@
         <v>600</v>
       </c>
       <c r="P58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
       </c>
       <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
         <v>5600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E60" s="3">
         <v>6600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>12100</v>
       </c>
       <c r="I60" s="3">
         <v>12100</v>
       </c>
       <c r="J60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K60" s="3">
         <v>10000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>3100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3148,40 +3294,43 @@
         <v>100</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E66" s="3">
         <v>8600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>16500</v>
       </c>
       <c r="H66" s="3">
         <v>16500</v>
       </c>
       <c r="I66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="J66" s="3">
         <v>16900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3515,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>8700</v>
@@ -3533,7 +3701,7 @@
         <v>8700</v>
       </c>
       <c r="M70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="N70" s="3">
         <v>8800</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-75700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-79400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-77000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-76800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-76200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-76600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-73500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-72800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-71300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-72200</v>
       </c>
       <c r="O72" s="3">
         <v>-72200</v>
       </c>
       <c r="P72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-71100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E76" s="3">
         <v>19900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,46 +4223,47 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
       </c>
       <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>800</v>
       </c>
       <c r="P83" s="3">
         <v>800</v>
@@ -4073,10 +4272,13 @@
         <v>800</v>
       </c>
       <c r="R83" s="3">
+        <v>800</v>
+      </c>
+      <c r="S83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>3400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4440,13 +4661,16 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,40 +4772,43 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>10800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-900</v>
       </c>
       <c r="G94" s="3">
         <v>-900</v>
       </c>
       <c r="H94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-500</v>
       </c>
       <c r="N94" s="3">
         <v>-500</v>
@@ -4587,16 +4817,19 @@
         <v>-500</v>
       </c>
       <c r="P94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,25 +5058,28 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-200</v>
       </c>
       <c r="I100" s="3">
         <v>-200</v>
@@ -4842,31 +5088,34 @@
         <v>-200</v>
       </c>
       <c r="K100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>4900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="G8" s="3">
-        <v>5800</v>
-      </c>
       <c r="H8" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I8" s="3">
         <v>2500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>5900</v>
       </c>
       <c r="Q8" s="3">
         <v>5900</v>
       </c>
       <c r="R8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="S8" s="3">
         <v>6400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1800</v>
       </c>
-      <c r="H9" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2400</v>
       </c>
       <c r="O9" s="3">
         <v>2400</v>
       </c>
       <c r="P9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="E10" s="3">
         <v>1500</v>
       </c>
       <c r="F10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G10" s="3">
         <v>2500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M10" s="3">
+        <v>7100</v>
+      </c>
+      <c r="N10" s="3">
         <v>4000</v>
       </c>
-      <c r="H10" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="O10" s="3">
         <v>3700</v>
       </c>
-      <c r="K10" s="3">
-        <v>3500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>7100</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>4000</v>
       </c>
-      <c r="N10" s="3">
-        <v>3700</v>
-      </c>
-      <c r="O10" s="3">
-        <v>4000</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>800</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>500</v>
+      </c>
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
-        <v>700</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1000</v>
       </c>
       <c r="K12" s="3">
         <v>1000</v>
       </c>
       <c r="L12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="3">
         <v>2300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,35 +1045,38 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1066,8 +1086,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E17" s="3">
         <v>4100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7100</v>
       </c>
-      <c r="G17" s="3">
-        <v>5800</v>
-      </c>
       <c r="H17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-1800</v>
       </c>
       <c r="I18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,22 +1312,23 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1315,78 +1349,84 @@
         <v>-100</v>
       </c>
       <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-1400</v>
-      </c>
       <c r="G21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N21" s="3">
         <v>300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1000</v>
       </c>
       <c r="O21" s="3">
         <v>1000</v>
       </c>
       <c r="P21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1415,10 +1455,10 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
-      </c>
-      <c r="M22" s="3">
-        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1438,85 +1478,91 @@
       <c r="S22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-2000</v>
       </c>
       <c r="I23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1527,11 +1573,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-5900</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
       <c r="H26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5800</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
-        <v>4700</v>
-      </c>
       <c r="H27" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5800</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1765,25 +1826,25 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>4700</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H29" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="I29" s="3">
         <v>1000</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,22 +1982,25 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -1951,25 +2021,28 @@
         <v>100</v>
       </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,52 +2050,55 @@
         <v>-1100</v>
       </c>
       <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>3700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,110 +2162,116 @@
         <v>-1100</v>
       </c>
       <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>3700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1200</v>
       </c>
       <c r="H41" s="3">
         <v>1200</v>
       </c>
       <c r="I41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E43" s="3">
         <v>1600</v>
       </c>
       <c r="F43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4200</v>
       </c>
       <c r="J43" s="3">
         <v>4200</v>
       </c>
       <c r="K43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L43" s="3">
         <v>2800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,114 +2535,123 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1800</v>
       </c>
       <c r="O45" s="3">
         <v>1800</v>
       </c>
       <c r="P45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q45" s="3">
         <v>1600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E46" s="3">
         <v>8200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6500</v>
-      </c>
-      <c r="P46" s="3">
-        <v>9200</v>
       </c>
       <c r="Q46" s="3">
         <v>9200</v>
       </c>
       <c r="R46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="S46" s="3">
         <v>11900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2556,32 +2661,32 @@
       <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>400</v>
-      </c>
-      <c r="H47" s="3">
-        <v>300</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
       </c>
       <c r="J47" s="3">
+        <v>300</v>
+      </c>
+      <c r="K47" s="3">
         <v>400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600</v>
-      </c>
-      <c r="L47" s="3">
-        <v>700</v>
       </c>
       <c r="M47" s="3">
         <v>700</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>10</v>
+      <c r="N47" s="3">
+        <v>700</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>10</v>
@@ -2592,28 +2697,31 @@
       <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
       </c>
       <c r="F48" s="3">
+        <v>600</v>
+      </c>
+      <c r="G48" s="3">
         <v>300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -2622,90 +2730,96 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E49" s="3">
         <v>17800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>24600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>24100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>23500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>24600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>26400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>26100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>25900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>25700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>27100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2819,52 +2939,55 @@
         <v>1700</v>
       </c>
       <c r="E52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="3">
         <v>1400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>600</v>
       </c>
       <c r="N52" s="3">
         <v>600</v>
       </c>
       <c r="O52" s="3">
+        <v>600</v>
+      </c>
+      <c r="P52" s="3">
         <v>700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>600</v>
       </c>
       <c r="Q52" s="3">
         <v>600</v>
       </c>
       <c r="R52" s="3">
+        <v>600</v>
+      </c>
+      <c r="S52" s="3">
         <v>700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E54" s="3">
         <v>28300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>31700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>31600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>37300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>38100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>41600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,81 +3141,85 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1100</v>
       </c>
       <c r="S57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
@@ -3109,175 +3243,187 @@
         <v>600</v>
       </c>
       <c r="Q58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R58" s="3">
         <v>700</v>
       </c>
       <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>12100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E60" s="3">
         <v>7600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>12100</v>
       </c>
       <c r="J60" s="3">
         <v>12100</v>
       </c>
       <c r="K60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="L60" s="3">
         <v>10000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>3100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,10 +3431,10 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -3297,40 +3443,43 @@
         <v>100</v>
       </c>
       <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>16500</v>
       </c>
       <c r="I66" s="3">
         <v>16500</v>
       </c>
       <c r="J66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K66" s="3">
         <v>16900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3686,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>8700</v>
@@ -3704,7 +3872,7 @@
         <v>8700</v>
       </c>
       <c r="N70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="O70" s="3">
         <v>8800</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-76900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-75700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-79400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-77000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-76800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-76200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-76600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-73500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-72800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-71300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-72200</v>
       </c>
       <c r="P72" s="3">
         <v>-72200</v>
       </c>
       <c r="Q72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="R72" s="3">
         <v>-71100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E76" s="3">
         <v>19100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,52 +4354,55 @@
         <v>-1100</v>
       </c>
       <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>3700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,49 +4422,50 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>300</v>
       </c>
-      <c r="F83" s="3">
-        <v>800</v>
-      </c>
       <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>500</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
-        <v>300</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
       </c>
       <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>800</v>
       </c>
       <c r="Q83" s="3">
         <v>800</v>
@@ -4275,10 +4474,13 @@
         <v>800</v>
       </c>
       <c r="S83" s="3">
+        <v>800</v>
+      </c>
+      <c r="T83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,19 +4836,20 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4664,13 +4885,16 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,43 +5002,46 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>10800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-900</v>
       </c>
       <c r="H94" s="3">
         <v>-900</v>
       </c>
       <c r="I94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-500</v>
       </c>
       <c r="O94" s="3">
         <v>-500</v>
@@ -4820,16 +5050,19 @@
         <v>-500</v>
       </c>
       <c r="Q94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,28 +5304,31 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-200</v>
       </c>
       <c r="J100" s="3">
         <v>-200</v>
@@ -5091,31 +5337,34 @@
         <v>-200</v>
       </c>
       <c r="L100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2800</v>
       </c>
-      <c r="G8" s="3">
-        <v>4800</v>
-      </c>
       <c r="H8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I8" s="3">
         <v>3500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>5900</v>
       </c>
       <c r="R8" s="3">
         <v>5900</v>
       </c>
       <c r="S8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="T8" s="3">
         <v>6400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2300</v>
       </c>
       <c r="H9" s="3">
         <v>1600</v>
       </c>
       <c r="I9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2400</v>
       </c>
       <c r="P9" s="3">
         <v>2400</v>
       </c>
       <c r="Q9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R9" s="3">
         <v>2600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1500</v>
       </c>
       <c r="F10" s="3">
         <v>1500</v>
       </c>
       <c r="G10" s="3">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="H10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I10" s="3">
         <v>1900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>7100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
-        <v>1200</v>
-      </c>
       <c r="H12" s="3">
+        <v>900</v>
+      </c>
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1000</v>
       </c>
       <c r="L12" s="3">
         <v>1000</v>
       </c>
       <c r="M12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="3">
         <v>2300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1059,27 +1079,27 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>1600</v>
-      </c>
       <c r="H14" s="3">
+        <v>900</v>
+      </c>
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>3700</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1089,8 +1109,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1098,14 +1118,17 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>-200</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
         <v>4500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
-        <v>7100</v>
-      </c>
       <c r="H17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I17" s="3">
         <v>5300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>13300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2300</v>
-      </c>
       <c r="H18" s="3">
-        <v>-1800</v>
+        <v>-2800</v>
       </c>
       <c r="I18" s="3">
         <v>-1800</v>
       </c>
       <c r="J18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,25 +1346,26 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
@@ -1352,81 +1386,87 @@
         <v>-100</v>
       </c>
       <c r="O20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
-        <v>-1500</v>
-      </c>
       <c r="H21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1000</v>
       </c>
       <c r="P21" s="3">
         <v>1000</v>
       </c>
       <c r="Q21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1440,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1458,10 +1498,10 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1481,91 +1521,97 @@
       <c r="T22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H23" s="3">
-        <v>-2000</v>
+        <v>-2900</v>
       </c>
       <c r="I23" s="3">
         <v>-2000</v>
       </c>
       <c r="J23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>-500</v>
       </c>
       <c r="I24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1576,11 +1622,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-5900</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5800</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5800</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,37 +1875,40 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>4700</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>1400</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1000</v>
       </c>
       <c r="J29" s="3">
         <v>1000</v>
       </c>
       <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>10</v>
@@ -1855,11 +1916,11 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,25 +2052,28 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
@@ -2024,81 +2094,87 @@
         <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E33" s="3">
         <v>-1100</v>
       </c>
       <c r="F33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G33" s="3">
         <v>3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E35" s="3">
         <v>-1100</v>
       </c>
       <c r="F35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G35" s="3">
         <v>3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1200</v>
       </c>
       <c r="I41" s="3">
         <v>1200</v>
       </c>
       <c r="J41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2516,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1600</v>
       </c>
       <c r="F43" s="3">
         <v>1600</v>
       </c>
       <c r="G43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H43" s="3">
         <v>2800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>4200</v>
       </c>
       <c r="K43" s="3">
         <v>4200</v>
       </c>
       <c r="L43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M43" s="3">
         <v>2800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,120 +2634,129 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1700</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1800</v>
       </c>
       <c r="P45" s="3">
         <v>1800</v>
       </c>
       <c r="Q45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R45" s="3">
         <v>1600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E46" s="3">
         <v>5500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6500</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>9200</v>
       </c>
       <c r="R46" s="3">
         <v>9200</v>
       </c>
       <c r="S46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="T46" s="3">
         <v>11900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2664,32 +2769,32 @@
       <c r="F47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>300</v>
       </c>
       <c r="J47" s="3">
         <v>300</v>
       </c>
       <c r="K47" s="3">
+        <v>300</v>
+      </c>
+      <c r="L47" s="3">
         <v>400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>600</v>
-      </c>
-      <c r="M47" s="3">
-        <v>700</v>
       </c>
       <c r="N47" s="3">
         <v>700</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>10</v>
+      <c r="O47" s="3">
+        <v>700</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>10</v>
@@ -2700,14 +2805,17 @@
       <c r="R47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,16 +2823,16 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
       </c>
       <c r="G48" s="3">
+        <v>600</v>
+      </c>
+      <c r="H48" s="3">
         <v>300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -2733,93 +2841,99 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E49" s="3">
         <v>17700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>24600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>24100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>23500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>26400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>25900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>25700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>27100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="E52" s="3">
         <v>1700</v>
       </c>
       <c r="F52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G52" s="3">
         <v>1400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
-      </c>
-      <c r="I52" s="3">
-        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
-      </c>
-      <c r="N52" s="3">
-        <v>600</v>
       </c>
       <c r="O52" s="3">
         <v>600</v>
       </c>
       <c r="P52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>700</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>600</v>
       </c>
       <c r="R52" s="3">
         <v>600</v>
       </c>
       <c r="S52" s="3">
+        <v>600</v>
+      </c>
+      <c r="T52" s="3">
         <v>700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E54" s="3">
         <v>25300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>31300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>31600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>32000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>37300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>38100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>41600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,55 +3282,58 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1100</v>
       </c>
       <c r="T57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,22 +3341,22 @@
         <v>1500</v>
       </c>
       <c r="E58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F58" s="3">
         <v>1100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
@@ -3246,128 +3380,137 @@
         <v>600</v>
       </c>
       <c r="R58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S58" s="3">
         <v>700</v>
       </c>
       <c r="T58" s="3">
+        <v>700</v>
+      </c>
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>5800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>12100</v>
       </c>
       <c r="K60" s="3">
         <v>12100</v>
       </c>
       <c r="L60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="M60" s="3">
         <v>10000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3375,69 +3518,72 @@
         <v>800</v>
       </c>
       <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>3100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
       </c>
       <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -3446,40 +3592,43 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E66" s="3">
         <v>7000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>16500</v>
       </c>
       <c r="J66" s="3">
         <v>16500</v>
       </c>
       <c r="K66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="L66" s="3">
         <v>16900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3857,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>8700</v>
@@ -3875,7 +4043,7 @@
         <v>8700</v>
       </c>
       <c r="O70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="P70" s="3">
         <v>8800</v>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-79100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-77900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-76900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-75700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-79400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-77000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-76800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-76200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-76600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-73500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-72800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-71300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-72200</v>
       </c>
       <c r="Q72" s="3">
         <v>-72200</v>
       </c>
       <c r="R72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="S72" s="3">
         <v>-71100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E76" s="3">
         <v>18400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E81" s="3">
         <v>-1100</v>
       </c>
       <c r="F81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G81" s="3">
         <v>3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,52 +4621,53 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
-        <v>600</v>
-      </c>
       <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
       </c>
       <c r="M83" s="3">
+        <v>300</v>
+      </c>
+      <c r="N83" s="3">
         <v>1000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>800</v>
       </c>
       <c r="R83" s="3">
         <v>800</v>
@@ -4477,10 +4676,13 @@
         <v>800</v>
       </c>
       <c r="T83" s="3">
+        <v>800</v>
+      </c>
+      <c r="U83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>3400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,22 +5057,23 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4888,13 +5109,16 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,46 +5232,49 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>10800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-900</v>
       </c>
       <c r="I94" s="3">
         <v>-900</v>
       </c>
       <c r="J94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-500</v>
       </c>
       <c r="P94" s="3">
         <v>-500</v>
@@ -5053,16 +5283,19 @@
         <v>-500</v>
       </c>
       <c r="R94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5550,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,22 +5562,22 @@
         <v>-600</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>800</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-200</v>
       </c>
       <c r="K100" s="3">
         <v>-200</v>
@@ -5340,31 +5586,34 @@
         <v>-200</v>
       </c>
       <c r="M100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>STRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,176 +762,185 @@
         <v>3000</v>
       </c>
       <c r="E8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>5900</v>
       </c>
       <c r="S8" s="3">
         <v>5900</v>
       </c>
       <c r="T8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="U8" s="3">
         <v>6400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1600</v>
       </c>
       <c r="I9" s="3">
         <v>1600</v>
       </c>
       <c r="J9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2400</v>
       </c>
       <c r="Q9" s="3">
         <v>2400</v>
       </c>
       <c r="R9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S9" s="3">
         <v>2600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1100</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1500</v>
       </c>
       <c r="G10" s="3">
         <v>1500</v>
       </c>
       <c r="H10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I10" s="3">
         <v>1100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>7100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,58 +972,61 @@
         <v>1000</v>
       </c>
       <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1000</v>
       </c>
       <c r="M12" s="3">
         <v>1000</v>
       </c>
       <c r="N12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="3">
         <v>2300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,13 +1084,16 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1082,27 +1101,27 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3700</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1112,8 +1131,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1121,14 +1140,17 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
         <v>-200</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1800</v>
       </c>
       <c r="J18" s="3">
         <v>-1800</v>
       </c>
       <c r="K18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,19 +1389,19 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1389,84 +1422,90 @@
         <v>-100</v>
       </c>
       <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>1000</v>
       </c>
       <c r="Q21" s="3">
         <v>1000</v>
       </c>
       <c r="R21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1483,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1501,10 +1540,10 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1524,97 +1563,103 @@
       <c r="U22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2000</v>
       </c>
       <c r="J23" s="3">
         <v>-2000</v>
       </c>
       <c r="K23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-500</v>
       </c>
       <c r="I24" s="3">
         <v>-500</v>
       </c>
       <c r="J24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1625,11 +1670,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5800</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5800</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,40 +1935,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>300</v>
+      </c>
+      <c r="E29" s="3">
         <v>400</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>4700</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>1400</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1000</v>
       </c>
       <c r="K29" s="3">
         <v>1000</v>
       </c>
       <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>10</v>
@@ -1919,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -2097,84 +2166,90 @@
         <v>100</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1100</v>
       </c>
       <c r="F33" s="3">
         <v>-1100</v>
       </c>
       <c r="G33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H33" s="3">
         <v>3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1100</v>
       </c>
       <c r="F35" s="3">
         <v>-1100</v>
       </c>
       <c r="G35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H35" s="3">
         <v>3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E41" s="3">
         <v>2400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1200</v>
       </c>
       <c r="J41" s="3">
         <v>1200</v>
       </c>
       <c r="K41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,67 +2608,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E43" s="3">
         <v>3100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1600</v>
       </c>
       <c r="G43" s="3">
         <v>1600</v>
       </c>
       <c r="H43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3600</v>
-      </c>
-      <c r="K43" s="3">
-        <v>4200</v>
       </c>
       <c r="L43" s="3">
         <v>4200</v>
       </c>
       <c r="M43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N43" s="3">
         <v>2800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,126 +2732,135 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1700</v>
-      </c>
-      <c r="P45" s="3">
-        <v>1800</v>
       </c>
       <c r="Q45" s="3">
         <v>1800</v>
       </c>
       <c r="R45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S45" s="3">
         <v>1600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E46" s="3">
         <v>7300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6500</v>
-      </c>
-      <c r="R46" s="3">
-        <v>9200</v>
       </c>
       <c r="S46" s="3">
         <v>9200</v>
       </c>
       <c r="T46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="U46" s="3">
         <v>11900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2772,32 +2876,32 @@
       <c r="G47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="H47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>300</v>
       </c>
       <c r="K47" s="3">
         <v>300</v>
       </c>
       <c r="L47" s="3">
+        <v>300</v>
+      </c>
+      <c r="M47" s="3">
         <v>400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>600</v>
-      </c>
-      <c r="N47" s="3">
-        <v>700</v>
       </c>
       <c r="O47" s="3">
         <v>700</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>10</v>
+      <c r="P47" s="3">
+        <v>700</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>10</v>
@@ -2808,34 +2912,37 @@
       <c r="S47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
       </c>
       <c r="H48" s="3">
+        <v>600</v>
+      </c>
+      <c r="I48" s="3">
         <v>300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -2844,96 +2951,102 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E49" s="3">
         <v>17300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>24600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>24100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>25900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>25700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>27100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1700</v>
       </c>
       <c r="F52" s="3">
         <v>1700</v>
       </c>
       <c r="G52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H52" s="3">
         <v>1400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
       <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>600</v>
       </c>
       <c r="P52" s="3">
         <v>600</v>
       </c>
       <c r="Q52" s="3">
+        <v>600</v>
+      </c>
+      <c r="R52" s="3">
         <v>700</v>
-      </c>
-      <c r="R52" s="3">
-        <v>600</v>
       </c>
       <c r="S52" s="3">
         <v>600</v>
       </c>
       <c r="T52" s="3">
+        <v>600</v>
+      </c>
+      <c r="U52" s="3">
         <v>700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E54" s="3">
         <v>26000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>31700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>31300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>37300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>38100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>41600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,93 +3402,97 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1100</v>
       </c>
       <c r="U57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="E58" s="3">
         <v>1500</v>
       </c>
       <c r="F58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G58" s="3">
         <v>1100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
@@ -3383,210 +3516,222 @@
         <v>600</v>
       </c>
       <c r="S58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T58" s="3">
         <v>700</v>
       </c>
       <c r="U58" s="3">
+        <v>700</v>
+      </c>
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
         <v>5600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E60" s="3">
         <v>7400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>12100</v>
       </c>
       <c r="L60" s="3">
         <v>12100</v>
       </c>
       <c r="M60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="N60" s="3">
         <v>10000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>800</v>
       </c>
       <c r="F61" s="3">
+        <v>800</v>
+      </c>
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>3100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
-      </c>
-      <c r="E62" s="3">
-        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
       <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3595,40 +3740,43 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>16500</v>
       </c>
       <c r="K66" s="3">
         <v>16500</v>
       </c>
       <c r="L66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="M66" s="3">
         <v>16900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4028,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>8700</v>
@@ -4046,7 +4213,7 @@
         <v>8700</v>
       </c>
       <c r="P70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="Q70" s="3">
         <v>8800</v>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-79100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-77900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-76900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-75700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-79400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-77000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-76800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-76200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-76600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-73500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-72800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-71300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-72200</v>
       </c>
       <c r="R72" s="3">
         <v>-72200</v>
       </c>
       <c r="S72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="T72" s="3">
         <v>-71100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-69000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E76" s="3">
         <v>17500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1100</v>
       </c>
       <c r="F81" s="3">
         <v>-1100</v>
       </c>
       <c r="G81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H81" s="3">
         <v>3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,55 +4819,56 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
       </c>
       <c r="N83" s="3">
+        <v>300</v>
+      </c>
+      <c r="O83" s="3">
         <v>1000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>800</v>
       </c>
       <c r="S83" s="3">
         <v>800</v>
@@ -4679,10 +4877,13 @@
         <v>800</v>
       </c>
       <c r="U83" s="3">
+        <v>800</v>
+      </c>
+      <c r="V83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>3400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,25 +5277,26 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5112,13 +5332,16 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,49 +5461,52 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-900</v>
       </c>
       <c r="J94" s="3">
         <v>-900</v>
       </c>
       <c r="K94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-500</v>
       </c>
       <c r="Q94" s="3">
         <v>-500</v>
@@ -5286,16 +5515,19 @@
         <v>-500</v>
       </c>
       <c r="S94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,34 +5795,37 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-600</v>
+        <v>14600</v>
       </c>
       <c r="E100" s="3">
         <v>-600</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-200</v>
       </c>
       <c r="L100" s="3">
         <v>-200</v>
@@ -5589,31 +5834,34 @@
         <v>-200</v>
       </c>
       <c r="N100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>4900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>STRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E8" s="3">
         <v>3000</v>
       </c>
       <c r="F8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>5900</v>
       </c>
       <c r="T8" s="3">
         <v>5900</v>
       </c>
       <c r="U8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="V8" s="3">
         <v>6400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -824,123 +831,129 @@
         <v>1400</v>
       </c>
       <c r="E9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1600</v>
       </c>
       <c r="J9" s="3">
         <v>1600</v>
       </c>
       <c r="K9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>2400</v>
       </c>
       <c r="R9" s="3">
         <v>2400</v>
       </c>
       <c r="S9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T9" s="3">
         <v>2600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1500</v>
       </c>
       <c r="H10" s="3">
         <v>1500</v>
       </c>
       <c r="I10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,58 +989,61 @@
         <v>1000</v>
       </c>
       <c r="F12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="3">
         <v>800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1000</v>
       </c>
       <c r="N12" s="3">
         <v>1000</v>
       </c>
       <c r="O12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P12" s="3">
         <v>2300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,44 +1104,47 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3700</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1134,8 +1154,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>-200</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E17" s="3">
         <v>5400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1800</v>
       </c>
       <c r="K18" s="3">
         <v>-1800</v>
       </c>
       <c r="L18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1392,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
@@ -1425,87 +1459,93 @@
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>1000</v>
       </c>
       <c r="R21" s="3">
         <v>1000</v>
       </c>
       <c r="S21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1525,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1543,10 +1583,10 @@
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2000</v>
       </c>
       <c r="K23" s="3">
         <v>-2000</v>
       </c>
       <c r="L23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,32 +1683,32 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-500</v>
       </c>
       <c r="J24" s="3">
         <v>-500</v>
       </c>
       <c r="K24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L24" s="3">
         <v>-400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1673,11 +1719,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-5900</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5800</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5800</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,43 +1996,46 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>400</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>4700</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1400</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1000</v>
       </c>
       <c r="L29" s="3">
         <v>1000</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>10</v>
@@ -1982,11 +2043,11 @@
       <c r="P29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2136,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
@@ -2169,87 +2239,93 @@
         <v>100</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1100</v>
       </c>
       <c r="G33" s="3">
         <v>-1100</v>
       </c>
       <c r="H33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I33" s="3">
         <v>3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1100</v>
       </c>
       <c r="G35" s="3">
         <v>-1100</v>
       </c>
       <c r="H35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I35" s="3">
         <v>3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E41" s="3">
         <v>16700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1200</v>
       </c>
       <c r="K41" s="3">
         <v>1200</v>
       </c>
       <c r="L41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
         <v>3400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1600</v>
       </c>
       <c r="H43" s="3">
         <v>1600</v>
       </c>
       <c r="I43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J43" s="3">
         <v>2800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3600</v>
-      </c>
-      <c r="L43" s="3">
-        <v>4200</v>
       </c>
       <c r="M43" s="3">
         <v>4200</v>
       </c>
       <c r="N43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O43" s="3">
         <v>2800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,132 +2831,141 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1800</v>
       </c>
       <c r="R45" s="3">
         <v>1800</v>
       </c>
       <c r="S45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T45" s="3">
         <v>1600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E46" s="3">
         <v>21600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6500</v>
-      </c>
-      <c r="S46" s="3">
-        <v>9200</v>
       </c>
       <c r="T46" s="3">
         <v>9200</v>
       </c>
       <c r="U46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="V46" s="3">
         <v>11900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2879,32 +2984,32 @@
       <c r="H47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>300</v>
       </c>
       <c r="L47" s="3">
         <v>300</v>
       </c>
       <c r="M47" s="3">
+        <v>300</v>
+      </c>
+      <c r="N47" s="3">
         <v>400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>700</v>
       </c>
       <c r="P47" s="3">
         <v>700</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>10</v>
+      <c r="Q47" s="3">
+        <v>700</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>10</v>
@@ -2915,14 +3020,17 @@
       <c r="T47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2930,22 +3038,22 @@
         <v>400</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H48" s="3">
         <v>600</v>
       </c>
       <c r="I48" s="3">
+        <v>600</v>
+      </c>
+      <c r="J48" s="3">
         <v>300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -2954,99 +3062,105 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E49" s="3">
         <v>17000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>24600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>25900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>25700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>26600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>27100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,61 +3298,64 @@
         <v>1000</v>
       </c>
       <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3">
         <v>900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1700</v>
       </c>
       <c r="G52" s="3">
         <v>1700</v>
       </c>
       <c r="H52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I52" s="3">
         <v>1400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
-      </c>
-      <c r="K52" s="3">
-        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
       </c>
       <c r="M52" s="3">
+        <v>300</v>
+      </c>
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>600</v>
       </c>
       <c r="Q52" s="3">
         <v>600</v>
       </c>
       <c r="R52" s="3">
+        <v>600</v>
+      </c>
+      <c r="S52" s="3">
         <v>700</v>
-      </c>
-      <c r="S52" s="3">
-        <v>600</v>
       </c>
       <c r="T52" s="3">
         <v>600</v>
       </c>
       <c r="U52" s="3">
+        <v>600</v>
+      </c>
+      <c r="V52" s="3">
         <v>700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E54" s="3">
         <v>40000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>28300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>31700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>37300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>38100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>41600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,99 +3533,103 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1100</v>
       </c>
       <c r="V57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>2300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1500</v>
       </c>
       <c r="F58" s="3">
         <v>1500</v>
       </c>
       <c r="G58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H58" s="3">
         <v>1100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
       </c>
       <c r="M58" s="3">
         <v>600</v>
@@ -3519,140 +3653,149 @@
         <v>600</v>
       </c>
       <c r="T58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="U58" s="3">
         <v>700</v>
       </c>
       <c r="V58" s="3">
+        <v>700</v>
+      </c>
+      <c r="W58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E59" s="3">
         <v>6600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E60" s="3">
         <v>9100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>12100</v>
       </c>
       <c r="M60" s="3">
         <v>12100</v>
       </c>
       <c r="N60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="O60" s="3">
         <v>10000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,61 +3803,64 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>800</v>
       </c>
       <c r="G61" s="3">
+        <v>800</v>
+      </c>
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>3100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,19 +3868,19 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
       <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3743,40 +3889,43 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E66" s="3">
         <v>9500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>16500</v>
       </c>
       <c r="L66" s="3">
         <v>16500</v>
       </c>
       <c r="M66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="N66" s="3">
         <v>16900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4198,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>8700</v>
@@ -4216,7 +4384,7 @@
         <v>8700</v>
       </c>
       <c r="Q70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="R70" s="3">
         <v>8800</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4304,61 +4478,64 @@
         <v>-81300</v>
       </c>
       <c r="E72" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-79100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-77900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-76900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-75700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-79400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-77000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-76800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-76200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-76600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-73500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-72800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-71300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-72200</v>
       </c>
       <c r="S72" s="3">
         <v>-72200</v>
       </c>
       <c r="T72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="U72" s="3">
         <v>-71100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-69000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E76" s="3">
         <v>30600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1100</v>
       </c>
       <c r="G81" s="3">
         <v>-1100</v>
       </c>
       <c r="H81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I81" s="3">
         <v>3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4829,49 +5028,49 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
       </c>
       <c r="O83" s="3">
+        <v>300</v>
+      </c>
+      <c r="P83" s="3">
         <v>1000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>600</v>
-      </c>
-      <c r="S83" s="3">
-        <v>800</v>
       </c>
       <c r="T83" s="3">
         <v>800</v>
@@ -4880,10 +5079,13 @@
         <v>800</v>
       </c>
       <c r="V83" s="3">
+        <v>800</v>
+      </c>
+      <c r="W83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>3400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,28 +5498,29 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5335,13 +5556,16 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,52 +5691,55 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>10800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-900</v>
       </c>
       <c r="K94" s="3">
         <v>-900</v>
       </c>
       <c r="L94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-500</v>
       </c>
       <c r="R94" s="3">
         <v>-500</v>
@@ -5518,16 +5748,19 @@
         <v>-500</v>
       </c>
       <c r="T94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,37 +6041,40 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>14600</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-600</v>
       </c>
       <c r="F100" s="3">
         <v>-600</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-200</v>
       </c>
       <c r="M100" s="3">
         <v>-200</v>
@@ -5837,31 +6083,34 @@
         <v>-200</v>
       </c>
       <c r="O100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>14300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>4900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>STRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E8" s="3">
         <v>2900</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3000</v>
       </c>
       <c r="F8" s="3">
         <v>3000</v>
       </c>
       <c r="G8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>5900</v>
       </c>
       <c r="U8" s="3">
         <v>5900</v>
       </c>
       <c r="V8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="W8" s="3">
         <v>6400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="E9" s="3">
         <v>1400</v>
       </c>
       <c r="F9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G9" s="3">
         <v>1600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1600</v>
       </c>
       <c r="K9" s="3">
         <v>1600</v>
       </c>
       <c r="L9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2300</v>
-      </c>
-      <c r="R9" s="3">
-        <v>2400</v>
       </c>
       <c r="S9" s="3">
         <v>2400</v>
       </c>
       <c r="T9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U9" s="3">
         <v>2600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1500</v>
       </c>
       <c r="I10" s="3">
         <v>1500</v>
       </c>
       <c r="J10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,13 +990,14 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>1000</v>
@@ -992,58 +1006,61 @@
         <v>1000</v>
       </c>
       <c r="G12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="3">
         <v>800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1000</v>
       </c>
       <c r="O12" s="3">
         <v>1000</v>
       </c>
       <c r="P12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>2300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,47 +1124,50 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3700</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1157,8 +1177,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>-200</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-3900</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1800</v>
       </c>
       <c r="L18" s="3">
         <v>-1800</v>
       </c>
       <c r="M18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,13 +1447,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1429,19 +1463,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
@@ -1462,95 +1496,101 @@
         <v>-100</v>
       </c>
       <c r="R20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1000</v>
       </c>
       <c r="S21" s="3">
         <v>1000</v>
       </c>
       <c r="T21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1568,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1586,10 +1626,10 @@
         <v>100</v>
       </c>
       <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-2000</v>
       </c>
       <c r="L23" s="3">
         <v>-2000</v>
       </c>
       <c r="M23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1686,32 +1732,32 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-500</v>
       </c>
       <c r="K24" s="3">
         <v>-500</v>
       </c>
       <c r="L24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M24" s="3">
         <v>-400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1722,11 +1768,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-5900</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5800</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5800</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,46 +2057,49 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>400</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>4700</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1400</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1000</v>
       </c>
       <c r="M29" s="3">
         <v>1000</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>10</v>
@@ -2046,11 +2107,11 @@
       <c r="Q29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,13 +2261,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2209,19 +2279,19 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
@@ -2242,90 +2312,96 @@
         <v>100</v>
       </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1100</v>
       </c>
       <c r="H33" s="3">
         <v>-1100</v>
       </c>
       <c r="I33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J33" s="3">
         <v>3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1100</v>
       </c>
       <c r="H35" s="3">
         <v>-1100</v>
       </c>
       <c r="I35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J35" s="3">
         <v>3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E41" s="3">
         <v>15800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1200</v>
       </c>
       <c r="L41" s="3">
         <v>1200</v>
       </c>
       <c r="M41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1600</v>
       </c>
       <c r="I43" s="3">
         <v>1600</v>
       </c>
       <c r="J43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K43" s="3">
         <v>2800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>4200</v>
       </c>
       <c r="N43" s="3">
         <v>4200</v>
       </c>
       <c r="O43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P43" s="3">
         <v>2800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,185 +2930,194 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1700</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1800</v>
       </c>
       <c r="S45" s="3">
         <v>1800</v>
       </c>
       <c r="T45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U45" s="3">
         <v>1600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E46" s="3">
         <v>19700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6500</v>
-      </c>
-      <c r="T46" s="3">
-        <v>9200</v>
       </c>
       <c r="U46" s="3">
         <v>9200</v>
       </c>
       <c r="V46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="W46" s="3">
         <v>11900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>400</v>
-      </c>
-      <c r="L47" s="3">
-        <v>300</v>
       </c>
       <c r="M47" s="3">
         <v>300</v>
       </c>
       <c r="N47" s="3">
+        <v>300</v>
+      </c>
+      <c r="O47" s="3">
         <v>400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>600</v>
-      </c>
-      <c r="P47" s="3">
-        <v>700</v>
       </c>
       <c r="Q47" s="3">
         <v>700</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>10</v>
+      <c r="R47" s="3">
+        <v>700</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>10</v>
@@ -3023,14 +3128,17 @@
       <c r="U47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3041,22 +3149,22 @@
         <v>400</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
       </c>
       <c r="H48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
       </c>
       <c r="J48" s="3">
+        <v>600</v>
+      </c>
+      <c r="K48" s="3">
         <v>300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -3065,102 +3173,108 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E49" s="3">
         <v>16800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>24600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>23500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>24600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>25900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>25700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>26200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>26600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>27100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E52" s="3">
         <v>1000</v>
       </c>
       <c r="F52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="3">
         <v>900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1700</v>
       </c>
       <c r="H52" s="3">
         <v>1700</v>
       </c>
       <c r="I52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J52" s="3">
         <v>1400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
-      </c>
-      <c r="L52" s="3">
-        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
       </c>
       <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>600</v>
       </c>
       <c r="R52" s="3">
         <v>600</v>
       </c>
       <c r="S52" s="3">
+        <v>600</v>
+      </c>
+      <c r="T52" s="3">
         <v>700</v>
-      </c>
-      <c r="T52" s="3">
-        <v>600</v>
       </c>
       <c r="U52" s="3">
         <v>600</v>
       </c>
       <c r="V52" s="3">
+        <v>600</v>
+      </c>
+      <c r="W52" s="3">
         <v>700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E54" s="3">
         <v>37800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>40000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>28300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>38100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>41600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,105 +3664,109 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
-      </c>
-      <c r="V57" s="3">
-        <v>1100</v>
       </c>
       <c r="W57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>2300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1500</v>
       </c>
       <c r="G58" s="3">
         <v>1500</v>
       </c>
       <c r="H58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>600</v>
       </c>
       <c r="N58" s="3">
         <v>600</v>
@@ -3656,234 +3790,246 @@
         <v>600</v>
       </c>
       <c r="U58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="V58" s="3">
         <v>700</v>
       </c>
       <c r="W58" s="3">
+        <v>700</v>
+      </c>
+      <c r="X58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
         <v>6300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>6600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>12100</v>
       </c>
       <c r="N60" s="3">
         <v>12100</v>
       </c>
       <c r="O60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="P60" s="3">
         <v>10000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>800</v>
       </c>
       <c r="H61" s="3">
+        <v>800</v>
+      </c>
+      <c r="I61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>3100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>11600</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
       </c>
       <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
       <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3892,40 +4038,43 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E66" s="3">
         <v>6900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>16500</v>
       </c>
       <c r="M66" s="3">
         <v>16500</v>
       </c>
       <c r="N66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="O66" s="3">
         <v>16900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4369,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>8700</v>
@@ -4387,7 +4555,7 @@
         <v>8700</v>
       </c>
       <c r="R70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="S70" s="3">
         <v>8800</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-81300</v>
+        <v>-85600</v>
       </c>
       <c r="E72" s="3">
         <v>-81300</v>
       </c>
       <c r="F72" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-79100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-77900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-76900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-75700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-79400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-77000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-76800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-76200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-76600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-73500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-72800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-71300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-72200</v>
       </c>
       <c r="T72" s="3">
         <v>-72200</v>
       </c>
       <c r="U72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="V72" s="3">
         <v>-71100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-69000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E76" s="3">
         <v>30900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1100</v>
       </c>
       <c r="H81" s="3">
         <v>-1100</v>
       </c>
       <c r="I81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J81" s="3">
         <v>3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5031,49 +5230,49 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
       </c>
       <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>1000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>600</v>
-      </c>
-      <c r="T83" s="3">
-        <v>800</v>
       </c>
       <c r="U83" s="3">
         <v>800</v>
@@ -5082,10 +5281,13 @@
         <v>800</v>
       </c>
       <c r="W83" s="3">
+        <v>800</v>
+      </c>
+      <c r="X83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>3400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,31 +5719,32 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5559,13 +5780,16 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,55 +5921,58 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E94" s="3">
         <v>500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>10800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-900</v>
       </c>
       <c r="L94" s="3">
         <v>-900</v>
       </c>
       <c r="M94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-500</v>
       </c>
       <c r="S94" s="3">
         <v>-500</v>
@@ -5751,16 +5981,19 @@
         <v>-500</v>
       </c>
       <c r="U94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,40 +6287,43 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>14600</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-600</v>
       </c>
       <c r="G100" s="3">
         <v>-600</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-200</v>
       </c>
       <c r="N100" s="3">
         <v>-200</v>
@@ -6086,31 +6332,34 @@
         <v>-200</v>
       </c>
       <c r="P100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,240 +665,250 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3000</v>
       </c>
       <c r="G8" s="3">
         <v>3000</v>
       </c>
       <c r="H8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>5900</v>
       </c>
       <c r="V8" s="3">
         <v>5900</v>
       </c>
       <c r="W8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="X8" s="3">
         <v>6400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E9" s="3">
         <v>2600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1400</v>
       </c>
       <c r="F9" s="3">
         <v>1400</v>
       </c>
       <c r="G9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H9" s="3">
         <v>1600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1600</v>
       </c>
       <c r="L9" s="3">
         <v>1600</v>
       </c>
       <c r="M9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2300</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2400</v>
       </c>
       <c r="T9" s="3">
         <v>2400</v>
       </c>
       <c r="U9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V9" s="3">
         <v>2600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,67 +916,70 @@
         <v>2900</v>
       </c>
       <c r="E10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F10" s="3">
         <v>1500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1500</v>
       </c>
       <c r="J10" s="3">
         <v>1500</v>
       </c>
       <c r="K10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,16 +1004,17 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E12" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F12" s="3">
         <v>1000</v>
@@ -1009,58 +1023,61 @@
         <v>1000</v>
       </c>
       <c r="H12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="3">
         <v>800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1000</v>
       </c>
       <c r="P12" s="3">
         <v>1000</v>
       </c>
       <c r="Q12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R12" s="3">
         <v>2300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,50 +1144,53 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>3700</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1180,8 +1200,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1189,14 +1209,17 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="3">
         <v>-200</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E17" s="3">
         <v>9400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>13300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1800</v>
       </c>
       <c r="M18" s="3">
         <v>-1800</v>
       </c>
       <c r="N18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,17 +1481,18 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1466,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
@@ -1499,93 +1533,99 @@
         <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>1000</v>
       </c>
       <c r="T21" s="3">
         <v>1000</v>
       </c>
       <c r="U21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V21" s="3">
         <v>100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1633,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1611,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1629,10 +1669,10 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
-      </c>
-      <c r="R22" s="3">
-        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>100</v>
@@ -1652,81 +1692,87 @@
       <c r="X22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-2000</v>
       </c>
       <c r="M23" s="3">
         <v>-2000</v>
       </c>
       <c r="N23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1735,32 +1781,32 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-500</v>
       </c>
       <c r="L24" s="3">
         <v>-500</v>
       </c>
       <c r="M24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N24" s="3">
         <v>-400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1771,11 +1817,11 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-5900</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5800</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5800</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,49 +2118,52 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>100</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>400</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>4700</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1400</v>
-      </c>
-      <c r="M29" s="3">
-        <v>1000</v>
       </c>
       <c r="N29" s="3">
         <v>1000</v>
       </c>
       <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>10</v>
@@ -2110,11 +2171,11 @@
       <c r="R29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,17 +2331,20 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2282,19 +2352,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
@@ -2315,93 +2385,99 @@
         <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1100</v>
       </c>
       <c r="I33" s="3">
         <v>-1100</v>
       </c>
       <c r="J33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K33" s="3">
         <v>3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1100</v>
       </c>
       <c r="I35" s="3">
         <v>-1100</v>
       </c>
       <c r="J35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K35" s="3">
         <v>3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E41" s="3">
         <v>10400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>16700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1200</v>
       </c>
       <c r="M41" s="3">
         <v>1200</v>
       </c>
       <c r="N41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2887,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1600</v>
       </c>
       <c r="J43" s="3">
         <v>1600</v>
       </c>
       <c r="K43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L43" s="3">
         <v>2800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3600</v>
-      </c>
-      <c r="N43" s="3">
-        <v>4200</v>
       </c>
       <c r="O43" s="3">
         <v>4200</v>
       </c>
       <c r="P43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,144 +3029,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
-      </c>
-      <c r="S45" s="3">
-        <v>1800</v>
       </c>
       <c r="T45" s="3">
         <v>1800</v>
       </c>
       <c r="U45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V45" s="3">
         <v>1600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E46" s="3">
         <v>15200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6500</v>
-      </c>
-      <c r="U46" s="3">
-        <v>9200</v>
       </c>
       <c r="V46" s="3">
         <v>9200</v>
       </c>
       <c r="W46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="X46" s="3">
         <v>11900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3099,28 +3204,28 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>400</v>
-      </c>
-      <c r="M47" s="3">
-        <v>300</v>
       </c>
       <c r="N47" s="3">
         <v>300</v>
       </c>
       <c r="O47" s="3">
+        <v>300</v>
+      </c>
+      <c r="P47" s="3">
         <v>400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>600</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>700</v>
       </c>
       <c r="R47" s="3">
         <v>700</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>10</v>
+      <c r="S47" s="3">
+        <v>700</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>10</v>
@@ -3131,19 +3236,22 @@
       <c r="V47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>400</v>
@@ -3152,22 +3260,22 @@
         <v>400</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
       </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
       </c>
       <c r="K48" s="3">
+        <v>600</v>
+      </c>
+      <c r="L48" s="3">
         <v>300</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3176,105 +3284,111 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>45400</v>
+      </c>
+      <c r="E49" s="3">
         <v>46000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>24600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>24600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>25900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>25700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>26000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>26200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>26600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>27100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3418,67 +3538,70 @@
         <v>900</v>
       </c>
       <c r="E52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F52" s="3">
         <v>1000</v>
       </c>
       <c r="G52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H52" s="3">
         <v>900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1700</v>
       </c>
       <c r="I52" s="3">
         <v>1700</v>
       </c>
       <c r="J52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
-      </c>
-      <c r="M52" s="3">
-        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
       </c>
       <c r="O52" s="3">
+        <v>300</v>
+      </c>
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
-      </c>
-      <c r="R52" s="3">
-        <v>600</v>
       </c>
       <c r="S52" s="3">
         <v>600</v>
       </c>
       <c r="T52" s="3">
+        <v>600</v>
+      </c>
+      <c r="U52" s="3">
         <v>700</v>
-      </c>
-      <c r="U52" s="3">
-        <v>600</v>
       </c>
       <c r="V52" s="3">
         <v>600</v>
       </c>
       <c r="W52" s="3">
+        <v>600</v>
+      </c>
+      <c r="X52" s="3">
         <v>700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E54" s="3">
         <v>62400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>37800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>40000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>28300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>38100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>41600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,111 +3795,115 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
-      </c>
-      <c r="W57" s="3">
-        <v>1100</v>
       </c>
       <c r="X57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>2300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1500</v>
       </c>
       <c r="H58" s="3">
         <v>1500</v>
       </c>
       <c r="I58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
@@ -3793,246 +3927,258 @@
         <v>600</v>
       </c>
       <c r="V58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="W58" s="3">
         <v>700</v>
       </c>
       <c r="X58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E59" s="3">
         <v>6600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E60" s="3">
         <v>7400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>12100</v>
       </c>
       <c r="O60" s="3">
         <v>12100</v>
       </c>
       <c r="P60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>10000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E61" s="3">
         <v>9800</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>800</v>
       </c>
       <c r="I61" s="3">
+        <v>800</v>
+      </c>
+      <c r="J61" s="3">
         <v>1200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>3100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E62" s="3">
         <v>11600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
       <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
       </c>
       <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -4041,40 +4187,43 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E66" s="3">
         <v>28800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>16500</v>
       </c>
       <c r="N66" s="3">
         <v>16500</v>
       </c>
       <c r="O66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="P66" s="3">
         <v>16900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4540,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="N70" s="3">
         <v>8700</v>
@@ -4558,7 +4726,7 @@
         <v>8700</v>
       </c>
       <c r="S70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="T70" s="3">
         <v>8800</v>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-85600</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-81300</v>
       </c>
       <c r="F72" s="3">
         <v>-81300</v>
       </c>
       <c r="G72" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-79100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-77900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-76900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-75700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-79400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-77000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-76800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-76200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-76600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-73500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-72800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-71300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-72200</v>
       </c>
       <c r="U72" s="3">
         <v>-72200</v>
       </c>
       <c r="V72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="W72" s="3">
         <v>-71100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-69000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E76" s="3">
         <v>33600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>30900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1100</v>
       </c>
       <c r="I81" s="3">
         <v>-1100</v>
       </c>
       <c r="J81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K81" s="3">
         <v>3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,13 +5416,14 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
@@ -5233,49 +5432,49 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
       <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
         <v>1000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>600</v>
-      </c>
-      <c r="U83" s="3">
-        <v>800</v>
       </c>
       <c r="V83" s="3">
         <v>800</v>
@@ -5284,10 +5483,13 @@
         <v>800</v>
       </c>
       <c r="X83" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>3400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,34 +5940,35 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>10</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5783,13 +6004,16 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,58 +6151,61 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>10800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-900</v>
       </c>
       <c r="M94" s="3">
         <v>-900</v>
       </c>
       <c r="N94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-500</v>
       </c>
       <c r="T94" s="3">
         <v>-500</v>
@@ -5984,16 +6214,19 @@
         <v>-500</v>
       </c>
       <c r="V94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,43 +6533,46 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>9800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>14600</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-600</v>
       </c>
       <c r="H100" s="3">
         <v>-600</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>800</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-200</v>
       </c>
       <c r="O100" s="3">
         <v>-200</v>
@@ -6335,31 +6581,34 @@
         <v>-200</v>
       </c>
       <c r="Q100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>400</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>STRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,333 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E8" s="3">
         <v>6000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3000</v>
       </c>
       <c r="H8" s="3">
         <v>3000</v>
       </c>
       <c r="I8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6400</v>
-      </c>
-      <c r="V8" s="3">
-        <v>5900</v>
       </c>
       <c r="W8" s="3">
         <v>5900</v>
       </c>
       <c r="X8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Y8" s="3">
         <v>6400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="3">
         <v>3100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1400</v>
       </c>
       <c r="G9" s="3">
         <v>1400</v>
       </c>
       <c r="H9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I9" s="3">
         <v>1600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1600</v>
       </c>
       <c r="M9" s="3">
         <v>1600</v>
       </c>
       <c r="N9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2300</v>
-      </c>
-      <c r="T9" s="3">
-        <v>2400</v>
       </c>
       <c r="U9" s="3">
         <v>2400</v>
       </c>
       <c r="V9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W9" s="3">
         <v>2600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E10" s="3">
         <v>2900</v>
       </c>
       <c r="F10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1500</v>
       </c>
       <c r="K10" s="3">
         <v>1500</v>
       </c>
       <c r="L10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>7100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,19 +1017,20 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1000</v>
       </c>
       <c r="G12" s="3">
         <v>1000</v>
@@ -1026,58 +1039,61 @@
         <v>1000</v>
       </c>
       <c r="I12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="3">
         <v>800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1000</v>
       </c>
       <c r="Q12" s="3">
         <v>1000</v>
       </c>
       <c r="R12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S12" s="3">
         <v>2300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1147,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1156,44 +1175,44 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3700</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1203,8 +1222,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1212,14 +1231,17 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-200</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E17" s="3">
         <v>8200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-1800</v>
       </c>
       <c r="N18" s="3">
         <v>-1800</v>
       </c>
       <c r="O18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,20 +1514,21 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1503,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
@@ -1536,96 +1569,102 @@
         <v>-100</v>
       </c>
       <c r="T20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>1000</v>
       </c>
       <c r="U21" s="3">
         <v>1000</v>
       </c>
       <c r="V21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W21" s="3">
         <v>100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1636,7 +1675,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1654,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
@@ -1672,10 +1711,10 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>100</v>
@@ -1695,88 +1734,94 @@
       <c r="Y22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-2000</v>
       </c>
       <c r="N23" s="3">
         <v>-2000</v>
       </c>
       <c r="O23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1784,32 +1829,32 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-500</v>
       </c>
       <c r="M24" s="3">
         <v>-500</v>
       </c>
       <c r="N24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O24" s="3">
         <v>-400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1820,11 +1865,11 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-5900</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>5800</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>5800</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2130,43 +2190,43 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>100</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>400</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>4700</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>1400</v>
-      </c>
-      <c r="N29" s="3">
-        <v>1000</v>
       </c>
       <c r="O29" s="3">
         <v>1000</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>10</v>
@@ -2174,11 +2234,11 @@
       <c r="S29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,20 +2400,23 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2355,19 +2424,19 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
@@ -2388,96 +2457,102 @@
         <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1100</v>
       </c>
       <c r="J33" s="3">
         <v>-1100</v>
       </c>
       <c r="K33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L33" s="3">
         <v>3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1100</v>
       </c>
       <c r="J35" s="3">
         <v>-1100</v>
       </c>
       <c r="K35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L35" s="3">
         <v>3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E41" s="3">
         <v>9900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>16700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1200</v>
       </c>
       <c r="N41" s="3">
         <v>1200</v>
       </c>
       <c r="O41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P41" s="3">
         <v>2000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,79 +2979,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E43" s="3">
         <v>4700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1600</v>
       </c>
       <c r="K43" s="3">
         <v>1600</v>
       </c>
       <c r="L43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M43" s="3">
         <v>2800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3600</v>
-      </c>
-      <c r="O43" s="3">
-        <v>4200</v>
       </c>
       <c r="P43" s="3">
         <v>4200</v>
       </c>
       <c r="Q43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R43" s="3">
         <v>2800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,150 +3127,159 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1700</v>
-      </c>
-      <c r="T45" s="3">
-        <v>1800</v>
       </c>
       <c r="U45" s="3">
         <v>1800</v>
       </c>
       <c r="V45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W45" s="3">
         <v>1600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E46" s="3">
         <v>15100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>21600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6500</v>
-      </c>
-      <c r="V46" s="3">
-        <v>9200</v>
       </c>
       <c r="W46" s="3">
         <v>9200</v>
       </c>
       <c r="X46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="Y46" s="3">
         <v>11900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3207,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>400</v>
-      </c>
-      <c r="N47" s="3">
-        <v>300</v>
       </c>
       <c r="O47" s="3">
         <v>300</v>
       </c>
       <c r="P47" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q47" s="3">
         <v>400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>600</v>
-      </c>
-      <c r="R47" s="3">
-        <v>700</v>
       </c>
       <c r="S47" s="3">
         <v>700</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>10</v>
+      <c r="T47" s="3">
+        <v>700</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>10</v>
@@ -3239,14 +3343,17 @@
       <c r="W47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3254,7 +3361,7 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>400</v>
@@ -3263,22 +3370,22 @@
         <v>400</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
       </c>
       <c r="L48" s="3">
+        <v>600</v>
+      </c>
+      <c r="M48" s="3">
         <v>300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
@@ -3287,108 +3394,114 @@
         <v>200</v>
       </c>
       <c r="P48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E49" s="3">
         <v>45400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>46000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>24600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>24100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>23500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>24600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>25900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>25700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>26000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>26200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>26600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>27100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
       </c>
       <c r="F52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
       </c>
       <c r="H52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I52" s="3">
         <v>900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1700</v>
       </c>
       <c r="J52" s="3">
         <v>1700</v>
       </c>
       <c r="K52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L52" s="3">
         <v>1400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
-      </c>
-      <c r="N52" s="3">
-        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
       </c>
       <c r="P52" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>400</v>
-      </c>
-      <c r="S52" s="3">
-        <v>600</v>
       </c>
       <c r="T52" s="3">
         <v>600</v>
       </c>
       <c r="U52" s="3">
+        <v>600</v>
+      </c>
+      <c r="V52" s="3">
         <v>700</v>
-      </c>
-      <c r="V52" s="3">
-        <v>600</v>
       </c>
       <c r="W52" s="3">
         <v>600</v>
       </c>
       <c r="X52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y52" s="3">
         <v>700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E54" s="3">
         <v>61800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>62400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>37800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>40000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>34500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>38100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>41600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,117 +3925,121 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
       </c>
       <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>900</v>
-      </c>
-      <c r="X57" s="3">
-        <v>1100</v>
       </c>
       <c r="Y57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>2300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1500</v>
       </c>
       <c r="I58" s="3">
         <v>1500</v>
       </c>
       <c r="J58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>600</v>
       </c>
       <c r="P58" s="3">
         <v>600</v>
@@ -3930,258 +4063,270 @@
         <v>600</v>
       </c>
       <c r="W58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="X58" s="3">
         <v>700</v>
       </c>
       <c r="Y58" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E59" s="3">
         <v>12500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E60" s="3">
         <v>13500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>12100</v>
       </c>
       <c r="P60" s="3">
         <v>12100</v>
       </c>
       <c r="Q60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="R60" s="3">
         <v>10000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>12800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E61" s="3">
         <v>9700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>800</v>
       </c>
       <c r="J61" s="3">
+        <v>800</v>
+      </c>
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>3100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E62" s="3">
         <v>4600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11600</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
       <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
         <v>400</v>
-      </c>
-      <c r="I62" s="3">
-        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
       </c>
       <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -4190,40 +4335,43 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
+        <v>100</v>
+      </c>
+      <c r="P62" s="3">
         <v>1200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E66" s="3">
         <v>27800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>28800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>16500</v>
       </c>
       <c r="O66" s="3">
         <v>16500</v>
       </c>
       <c r="P66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>16900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4711,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>8700</v>
@@ -4729,7 +4896,7 @@
         <v>8700</v>
       </c>
       <c r="T70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="U70" s="3">
         <v>8800</v>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4826,70 +4999,73 @@
         <v>-85700</v>
       </c>
       <c r="E72" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-85600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-81300</v>
       </c>
       <c r="G72" s="3">
         <v>-81300</v>
       </c>
       <c r="H72" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-79100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-77900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-76900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-75700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-79400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-77000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-76800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-76200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-76600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-73500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-72800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-71300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-72200</v>
       </c>
       <c r="V72" s="3">
         <v>-72200</v>
       </c>
       <c r="W72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="X72" s="3">
         <v>-71100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-69000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31400</v>
+      </c>
+      <c r="E76" s="3">
         <v>34000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>30900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>18400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1100</v>
       </c>
       <c r="J81" s="3">
         <v>-1100</v>
       </c>
       <c r="K81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L81" s="3">
         <v>3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,16 +5614,17 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>500</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -5435,49 +5633,49 @@
         <v>500</v>
       </c>
       <c r="H83" s="3">
+        <v>500</v>
+      </c>
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
       </c>
       <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
         <v>1000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>600</v>
-      </c>
-      <c r="V83" s="3">
-        <v>800</v>
       </c>
       <c r="W83" s="3">
         <v>800</v>
@@ -5486,10 +5684,13 @@
         <v>800</v>
       </c>
       <c r="Y83" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>3400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,37 +6160,38 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6007,13 +6227,16 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6163,52 +6392,52 @@
         <v>-500</v>
       </c>
       <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-12700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-900</v>
       </c>
       <c r="N94" s="3">
         <v>-900</v>
       </c>
       <c r="O94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-500</v>
       </c>
       <c r="U94" s="3">
         <v>-500</v>
@@ -6217,16 +6446,19 @@
         <v>-500</v>
       </c>
       <c r="W94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6545,37 +6790,37 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>9800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-600</v>
       </c>
       <c r="I100" s="3">
         <v>-600</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-200</v>
       </c>
       <c r="P100" s="3">
         <v>-200</v>
@@ -6584,31 +6829,34 @@
         <v>-200</v>
       </c>
       <c r="R100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>STRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>3000</v>
       </c>
       <c r="I8" s="3">
         <v>3000</v>
       </c>
       <c r="J8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6400</v>
-      </c>
-      <c r="W8" s="3">
-        <v>5900</v>
       </c>
       <c r="X8" s="3">
         <v>5900</v>
       </c>
       <c r="Y8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Z8" s="3">
         <v>6400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -851,147 +858,153 @@
         <v>3200</v>
       </c>
       <c r="E9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F9" s="3">
         <v>3100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1400</v>
       </c>
       <c r="H9" s="3">
         <v>1400</v>
       </c>
       <c r="I9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1600</v>
       </c>
       <c r="N9" s="3">
         <v>1600</v>
       </c>
       <c r="O9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P9" s="3">
         <v>1100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2300</v>
-      </c>
-      <c r="U9" s="3">
-        <v>2400</v>
       </c>
       <c r="V9" s="3">
         <v>2400</v>
       </c>
       <c r="W9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X9" s="3">
         <v>2600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2700</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2900</v>
       </c>
       <c r="F10" s="3">
         <v>2900</v>
       </c>
       <c r="G10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1500</v>
       </c>
       <c r="L10" s="3">
         <v>1500</v>
       </c>
       <c r="M10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,22 +1031,23 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1000</v>
       </c>
       <c r="H12" s="3">
         <v>1000</v>
@@ -1042,58 +1056,61 @@
         <v>1000</v>
       </c>
       <c r="J12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="3">
         <v>800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1000</v>
       </c>
       <c r="R12" s="3">
         <v>1000</v>
       </c>
       <c r="S12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T12" s="3">
         <v>2300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,56 +1183,59 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
       </c>
       <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3700</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1225,8 +1245,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1234,14 +1254,17 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-200</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E17" s="3">
         <v>9100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1800</v>
       </c>
       <c r="O18" s="3">
         <v>-1800</v>
       </c>
       <c r="P18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,23 +1548,24 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1539,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
@@ -1572,104 +1606,110 @@
         <v>-100</v>
       </c>
       <c r="U20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
-      </c>
-      <c r="U21" s="3">
-        <v>1000</v>
       </c>
       <c r="V21" s="3">
         <v>1000</v>
       </c>
       <c r="W21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X21" s="3">
         <v>100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1678,7 +1718,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1696,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1714,10 +1754,10 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-2000</v>
       </c>
       <c r="O23" s="3">
         <v>-2000</v>
       </c>
       <c r="P23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1820,11 +1866,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1832,32 +1878,32 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-500</v>
       </c>
       <c r="N24" s="3">
         <v>-500</v>
       </c>
       <c r="O24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P24" s="3">
         <v>-400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1868,11 +1914,11 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-5900</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>5800</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-4400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>5800</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,43 +2254,43 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>400</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>4700</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>1400</v>
-      </c>
-      <c r="O29" s="3">
-        <v>1000</v>
       </c>
       <c r="P29" s="3">
         <v>1000</v>
       </c>
       <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>10</v>
@@ -2237,11 +2298,11 @@
       <c r="T29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,23 +2470,26 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2427,19 +2497,19 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
@@ -2460,99 +2530,105 @@
         <v>100</v>
       </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-4300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1100</v>
       </c>
       <c r="K33" s="3">
         <v>-1100</v>
       </c>
       <c r="L33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M33" s="3">
         <v>3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>4700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-4300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1100</v>
       </c>
       <c r="K35" s="3">
         <v>-1100</v>
       </c>
       <c r="L35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M35" s="3">
         <v>3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>4700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E41" s="3">
         <v>8000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1200</v>
       </c>
       <c r="O41" s="3">
         <v>1200</v>
       </c>
       <c r="P41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,82 +3072,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E43" s="3">
         <v>5300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1600</v>
       </c>
       <c r="L43" s="3">
         <v>1600</v>
       </c>
       <c r="M43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N43" s="3">
         <v>2800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3600</v>
-      </c>
-      <c r="P43" s="3">
-        <v>4200</v>
       </c>
       <c r="Q43" s="3">
         <v>4200</v>
       </c>
       <c r="R43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S43" s="3">
         <v>2800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,156 +3226,165 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1700</v>
-      </c>
-      <c r="U45" s="3">
-        <v>1800</v>
       </c>
       <c r="V45" s="3">
         <v>1800</v>
       </c>
       <c r="W45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X45" s="3">
         <v>1600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E46" s="3">
         <v>13700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>21600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6500</v>
-      </c>
-      <c r="W46" s="3">
-        <v>9200</v>
       </c>
       <c r="X46" s="3">
         <v>9200</v>
       </c>
       <c r="Y46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="Z46" s="3">
         <v>11900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3314,28 +3419,28 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>400</v>
-      </c>
-      <c r="O47" s="3">
-        <v>300</v>
       </c>
       <c r="P47" s="3">
         <v>300</v>
       </c>
       <c r="Q47" s="3">
+        <v>300</v>
+      </c>
+      <c r="R47" s="3">
         <v>400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>600</v>
-      </c>
-      <c r="S47" s="3">
-        <v>700</v>
       </c>
       <c r="T47" s="3">
         <v>700</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>10</v>
+      <c r="U47" s="3">
+        <v>700</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>10</v>
@@ -3346,25 +3451,28 @@
       <c r="X47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>400</v>
@@ -3373,22 +3481,22 @@
         <v>400</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
       </c>
       <c r="K48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L48" s="3">
         <v>600</v>
       </c>
       <c r="M48" s="3">
+        <v>600</v>
+      </c>
+      <c r="N48" s="3">
         <v>300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
@@ -3397,111 +3505,117 @@
         <v>200</v>
       </c>
       <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E49" s="3">
         <v>45000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>45400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>46000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>24600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>24100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>23500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>24600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>25900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>25700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>26000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>26200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>26600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>27100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>900</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
       </c>
       <c r="G52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H52" s="3">
         <v>1000</v>
       </c>
       <c r="I52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="3">
         <v>900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1700</v>
       </c>
       <c r="K52" s="3">
         <v>1700</v>
       </c>
       <c r="L52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M52" s="3">
         <v>1400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
-      </c>
-      <c r="O52" s="3">
-        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
       </c>
       <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>400</v>
-      </c>
-      <c r="T52" s="3">
-        <v>600</v>
       </c>
       <c r="U52" s="3">
         <v>600</v>
       </c>
       <c r="V52" s="3">
+        <v>600</v>
+      </c>
+      <c r="W52" s="3">
         <v>700</v>
-      </c>
-      <c r="W52" s="3">
-        <v>600</v>
       </c>
       <c r="X52" s="3">
         <v>600</v>
       </c>
       <c r="Y52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z52" s="3">
         <v>700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E54" s="3">
         <v>60000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>61800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>62400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>37800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>40000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>25300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>34500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>37500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>38100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>41600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,123 +4056,127 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>900</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>1100</v>
       </c>
       <c r="Z57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>2300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1500</v>
       </c>
       <c r="J58" s="3">
         <v>1500</v>
       </c>
       <c r="K58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
@@ -4066,270 +4200,282 @@
         <v>600</v>
       </c>
       <c r="X58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Y58" s="3">
         <v>700</v>
       </c>
       <c r="Z58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E59" s="3">
         <v>13600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>10900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E60" s="3">
         <v>15000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>12100</v>
       </c>
       <c r="Q60" s="3">
         <v>12100</v>
       </c>
       <c r="R60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="S60" s="3">
         <v>10000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>12800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E61" s="3">
         <v>9500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>800</v>
       </c>
       <c r="K61" s="3">
+        <v>800</v>
+      </c>
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>3100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E62" s="3">
         <v>4000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
       <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
       <c r="L62" s="3">
+        <v>300</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
-      </c>
-      <c r="M62" s="3">
-        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -4338,40 +4484,43 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,8 +4747,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4601,73 +4759,76 @@
         <v>28500</v>
       </c>
       <c r="E66" s="3">
+        <v>28500</v>
+      </c>
+      <c r="F66" s="3">
         <v>27800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>28800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>16500</v>
       </c>
       <c r="P66" s="3">
         <v>16500</v>
       </c>
       <c r="Q66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="R66" s="3">
         <v>16900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>19200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>20900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4881,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>8700</v>
@@ -4899,7 +5067,7 @@
         <v>8700</v>
       </c>
       <c r="U70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="V70" s="3">
         <v>8800</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-85700</v>
+        <v>-91700</v>
       </c>
       <c r="E72" s="3">
         <v>-85700</v>
       </c>
       <c r="F72" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-85600</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-81300</v>
       </c>
       <c r="H72" s="3">
         <v>-81300</v>
       </c>
       <c r="I72" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-79100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-77900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-76900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-75700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-79400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-77000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-76800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-76200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-76600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-73500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-72800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-71300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-72200</v>
       </c>
       <c r="W72" s="3">
         <v>-72200</v>
       </c>
       <c r="X72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-71100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-69000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E76" s="3">
         <v>31400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>34000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>30600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>18400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-4300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1100</v>
       </c>
       <c r="K81" s="3">
         <v>-1100</v>
       </c>
       <c r="L81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M81" s="3">
         <v>3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>4700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5624,10 +5823,10 @@
         <v>500</v>
       </c>
       <c r="E83" s="3">
+        <v>500</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -5636,49 +5835,49 @@
         <v>500</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
       </c>
       <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
         <v>1000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>600</v>
-      </c>
-      <c r="W83" s="3">
-        <v>800</v>
       </c>
       <c r="X83" s="3">
         <v>800</v>
@@ -5687,10 +5886,13 @@
         <v>800</v>
       </c>
       <c r="Z83" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>3400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,40 +6381,41 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>10</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6230,13 +6451,16 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,64 +6610,67 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
         <v>-500</v>
       </c>
       <c r="F94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G94" s="3">
         <v>-12700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>10800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-900</v>
       </c>
       <c r="O94" s="3">
         <v>-900</v>
       </c>
       <c r="P94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-700</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-500</v>
       </c>
       <c r="V94" s="3">
         <v>-500</v>
@@ -6449,16 +6679,19 @@
         <v>-500</v>
       </c>
       <c r="X94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,49 +7024,52 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>9800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14600</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-600</v>
       </c>
       <c r="J100" s="3">
         <v>-600</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>800</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-200</v>
       </c>
       <c r="Q100" s="3">
         <v>-200</v>
@@ -6832,31 +7078,34 @@
         <v>-200</v>
       </c>
       <c r="S100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E8" s="3">
         <v>6000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2900</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3000</v>
       </c>
       <c r="J8" s="3">
         <v>3000</v>
       </c>
       <c r="K8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L8" s="3">
         <v>2600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6400</v>
-      </c>
-      <c r="X8" s="3">
-        <v>5900</v>
       </c>
       <c r="Y8" s="3">
         <v>5900</v>
       </c>
       <c r="Z8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="AA8" s="3">
         <v>6400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="E9" s="3">
         <v>3200</v>
       </c>
       <c r="F9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G9" s="3">
         <v>3100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1400</v>
       </c>
       <c r="I9" s="3">
         <v>1400</v>
       </c>
       <c r="J9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1600</v>
       </c>
       <c r="O9" s="3">
         <v>1600</v>
       </c>
       <c r="P9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2300</v>
-      </c>
-      <c r="V9" s="3">
-        <v>2400</v>
       </c>
       <c r="W9" s="3">
         <v>2400</v>
       </c>
       <c r="X9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Y9" s="3">
         <v>2600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2900</v>
       </c>
       <c r="G10" s="3">
         <v>2900</v>
       </c>
       <c r="H10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1500</v>
       </c>
       <c r="M10" s="3">
         <v>1500</v>
       </c>
       <c r="N10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,25 +1045,26 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
       <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1000</v>
       </c>
       <c r="I12" s="3">
         <v>1000</v>
@@ -1059,58 +1073,61 @@
         <v>1000</v>
       </c>
       <c r="K12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="3">
         <v>800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1000</v>
       </c>
       <c r="S12" s="3">
         <v>1000</v>
       </c>
       <c r="T12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U12" s="3">
         <v>2300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,59 +1203,62 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>100</v>
+      </c>
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3700</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1248,8 +1268,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-200</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E17" s="3">
         <v>8600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>7800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1800</v>
       </c>
       <c r="P18" s="3">
         <v>-1800</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,26 +1582,27 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1576,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
@@ -1609,102 +1643,108 @@
         <v>-100</v>
       </c>
       <c r="V20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
-      </c>
-      <c r="V21" s="3">
-        <v>1000</v>
       </c>
       <c r="W21" s="3">
         <v>1000</v>
       </c>
       <c r="X21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y21" s="3">
         <v>100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1712,7 +1752,7 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1721,7 +1761,7 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1739,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1757,10 +1797,10 @@
         <v>100</v>
       </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
         <v>200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>100</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-2000</v>
       </c>
       <c r="P23" s="3">
         <v>-2000</v>
       </c>
       <c r="Q23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1869,11 +1915,11 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1881,32 +1927,32 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-500</v>
       </c>
       <c r="O24" s="3">
         <v>-500</v>
       </c>
       <c r="P24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1917,11 +1963,11 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-5900</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5800</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-4400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5800</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2257,43 +2318,43 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>100</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>400</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>4700</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>1400</v>
-      </c>
-      <c r="P29" s="3">
-        <v>1000</v>
       </c>
       <c r="Q29" s="3">
         <v>1000</v>
       </c>
       <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>10</v>
@@ -2301,11 +2362,11 @@
       <c r="U29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>10</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,26 +2540,29 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2500,19 +2570,19 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
@@ -2533,102 +2603,108 @@
         <v>100</v>
       </c>
       <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-4300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1100</v>
       </c>
       <c r="L33" s="3">
         <v>-1100</v>
       </c>
       <c r="M33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N33" s="3">
         <v>3700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-4300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1100</v>
       </c>
       <c r="L35" s="3">
         <v>-1100</v>
       </c>
       <c r="M35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N35" s="3">
         <v>3700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E41" s="3">
         <v>5900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>15800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1200</v>
       </c>
       <c r="P41" s="3">
         <v>1200</v>
       </c>
       <c r="Q41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R41" s="3">
         <v>2000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,85 +3165,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E43" s="3">
         <v>4300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1600</v>
       </c>
       <c r="M43" s="3">
         <v>1600</v>
       </c>
       <c r="N43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O43" s="3">
         <v>2800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>4200</v>
       </c>
       <c r="R43" s="3">
         <v>4200</v>
       </c>
       <c r="S43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="T43" s="3">
         <v>2800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,153 +3337,159 @@
         <v>900</v>
       </c>
       <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>2600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1700</v>
-      </c>
-      <c r="V45" s="3">
-        <v>1800</v>
       </c>
       <c r="W45" s="3">
         <v>1800</v>
       </c>
       <c r="X45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y45" s="3">
         <v>1600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>1400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E46" s="3">
         <v>11200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>19700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>21600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6500</v>
-      </c>
-      <c r="X46" s="3">
-        <v>9200</v>
       </c>
       <c r="Y46" s="3">
         <v>9200</v>
       </c>
       <c r="Z46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="AA46" s="3">
         <v>11900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3422,28 +3527,28 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>400</v>
-      </c>
-      <c r="P47" s="3">
-        <v>300</v>
       </c>
       <c r="Q47" s="3">
         <v>300</v>
       </c>
       <c r="R47" s="3">
+        <v>300</v>
+      </c>
+      <c r="S47" s="3">
         <v>400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>600</v>
-      </c>
-      <c r="T47" s="3">
-        <v>700</v>
       </c>
       <c r="U47" s="3">
         <v>700</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>10</v>
+      <c r="V47" s="3">
+        <v>700</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>10</v>
@@ -3454,14 +3559,17 @@
       <c r="Y47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3469,13 +3577,13 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>400</v>
@@ -3484,22 +3592,22 @@
         <v>400</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
       </c>
       <c r="L48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
       <c r="N48" s="3">
+        <v>600</v>
+      </c>
+      <c r="O48" s="3">
         <v>300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
@@ -3508,114 +3616,120 @@
         <v>200</v>
       </c>
       <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E49" s="3">
         <v>44400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>45000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>46000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>24600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>24100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>23500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>24600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>26100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>25900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>25700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>26000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>26200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>26600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>27100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3777,76 +3897,79 @@
         <v>1200</v>
       </c>
       <c r="E52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F52" s="3">
         <v>1000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>900</v>
       </c>
       <c r="G52" s="3">
         <v>900</v>
       </c>
       <c r="H52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I52" s="3">
         <v>1000</v>
       </c>
       <c r="J52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="3">
         <v>900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1700</v>
       </c>
       <c r="L52" s="3">
         <v>1700</v>
       </c>
       <c r="M52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N52" s="3">
         <v>1400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>800</v>
-      </c>
-      <c r="P52" s="3">
-        <v>300</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
       </c>
       <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>400</v>
-      </c>
-      <c r="U52" s="3">
-        <v>600</v>
       </c>
       <c r="V52" s="3">
         <v>600</v>
       </c>
       <c r="W52" s="3">
+        <v>600</v>
+      </c>
+      <c r="X52" s="3">
         <v>700</v>
-      </c>
-      <c r="X52" s="3">
-        <v>600</v>
       </c>
       <c r="Y52" s="3">
         <v>600</v>
       </c>
       <c r="Z52" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA52" s="3">
         <v>700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E54" s="3">
         <v>57000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>60000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>61800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>37800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>40000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>28300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>33100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>34500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>37500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>38100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>41600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,129 +4187,133 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>900</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>1100</v>
       </c>
       <c r="AA57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>2300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1500</v>
       </c>
       <c r="K58" s="3">
         <v>1500</v>
       </c>
       <c r="L58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>600</v>
       </c>
       <c r="R58" s="3">
         <v>600</v>
@@ -4203,282 +4337,294 @@
         <v>600</v>
       </c>
       <c r="Y58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Z58" s="3">
         <v>700</v>
       </c>
       <c r="AA58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E59" s="3">
         <v>13500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>9700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>10900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E60" s="3">
         <v>14700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>7400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>12100</v>
       </c>
       <c r="R60" s="3">
         <v>12100</v>
       </c>
       <c r="S60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="T60" s="3">
         <v>10000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>12200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>12800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E61" s="3">
         <v>9400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>800</v>
       </c>
       <c r="L61" s="3">
+        <v>800</v>
+      </c>
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>3100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>4300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>300</v>
       </c>
       <c r="I62" s="3">
         <v>300</v>
       </c>
       <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
       </c>
       <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
         <v>400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -4487,40 +4633,43 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+      <c r="R62" s="3">
         <v>1200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28500</v>
+        <v>28100</v>
       </c>
       <c r="E66" s="3">
         <v>28500</v>
       </c>
       <c r="F66" s="3">
+        <v>28500</v>
+      </c>
+      <c r="G66" s="3">
         <v>27800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>28800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>16500</v>
       </c>
       <c r="Q66" s="3">
         <v>16500</v>
       </c>
       <c r="R66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="S66" s="3">
         <v>16900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>18400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>19400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>19200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5052,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>8700</v>
@@ -5070,7 +5238,7 @@
         <v>8700</v>
       </c>
       <c r="V70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="W70" s="3">
         <v>8800</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-94900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-91700</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-85700</v>
       </c>
       <c r="F72" s="3">
         <v>-85700</v>
       </c>
       <c r="G72" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="H72" s="3">
         <v>-85600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-81300</v>
       </c>
       <c r="I72" s="3">
         <v>-81300</v>
       </c>
       <c r="J72" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-79100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-77900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-76900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-75700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-79400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-77000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-76800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-76200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-76600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-73500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-72800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-71300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-72200</v>
       </c>
       <c r="X72" s="3">
         <v>-72200</v>
       </c>
       <c r="Y72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-71100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-69000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E76" s="3">
         <v>28500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>34000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>33600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>30900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>30600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-4300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1100</v>
       </c>
       <c r="L81" s="3">
         <v>-1100</v>
       </c>
       <c r="M81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N81" s="3">
         <v>3700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5826,10 +6025,10 @@
         <v>500</v>
       </c>
       <c r="F83" s="3">
+        <v>500</v>
+      </c>
+      <c r="G83" s="3">
         <v>400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>500</v>
@@ -5838,49 +6037,49 @@
         <v>500</v>
       </c>
       <c r="J83" s="3">
+        <v>500</v>
+      </c>
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
       </c>
       <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
         <v>1000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>600</v>
-      </c>
-      <c r="X83" s="3">
-        <v>800</v>
       </c>
       <c r="Y83" s="3">
         <v>800</v>
@@ -5889,10 +6088,13 @@
         <v>800</v>
       </c>
       <c r="AA83" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>3400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,43 +6602,44 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>10</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>10</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6454,13 +6675,16 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,67 +6840,70 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-500</v>
       </c>
       <c r="F94" s="3">
         <v>-500</v>
       </c>
       <c r="G94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H94" s="3">
         <v>-12700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>10800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-900</v>
       </c>
       <c r="P94" s="3">
         <v>-900</v>
       </c>
       <c r="Q94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-700</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-500</v>
       </c>
       <c r="W94" s="3">
         <v>-500</v>
@@ -6682,16 +6912,19 @@
         <v>-500</v>
       </c>
       <c r="Y94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,52 +7270,55 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>9800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>14600</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-600</v>
       </c>
       <c r="K100" s="3">
         <v>-600</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>800</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-200</v>
       </c>
       <c r="R100" s="3">
         <v>-200</v>
@@ -7081,31 +7327,34 @@
         <v>-200</v>
       </c>
       <c r="T100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>STRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E8" s="3">
         <v>6200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3000</v>
       </c>
       <c r="K8" s="3">
         <v>3000</v>
       </c>
       <c r="L8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M8" s="3">
         <v>2600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6400</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>5900</v>
       </c>
       <c r="Z8" s="3">
         <v>5900</v>
       </c>
       <c r="AA8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="AB8" s="3">
         <v>6400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E9" s="3">
         <v>3600</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3200</v>
       </c>
       <c r="F9" s="3">
         <v>3200</v>
       </c>
       <c r="G9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H9" s="3">
         <v>3100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1400</v>
       </c>
       <c r="J9" s="3">
         <v>1400</v>
       </c>
       <c r="K9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1600</v>
       </c>
       <c r="P9" s="3">
         <v>1600</v>
       </c>
       <c r="Q9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R9" s="3">
         <v>1100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2300</v>
-      </c>
-      <c r="W9" s="3">
-        <v>2400</v>
       </c>
       <c r="X9" s="3">
         <v>2400</v>
       </c>
       <c r="Y9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Z9" s="3">
         <v>2600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2900</v>
       </c>
       <c r="H10" s="3">
         <v>2900</v>
       </c>
       <c r="I10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1500</v>
       </c>
       <c r="N10" s="3">
         <v>1500</v>
       </c>
       <c r="O10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>7100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,28 +1059,29 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
         <v>1800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1000</v>
       </c>
       <c r="J12" s="3">
         <v>1000</v>
@@ -1076,58 +1090,61 @@
         <v>1000</v>
       </c>
       <c r="L12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="3">
         <v>800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>600</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1000</v>
       </c>
       <c r="T12" s="3">
         <v>1000</v>
       </c>
       <c r="U12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V12" s="3">
         <v>2300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,62 +1223,65 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
       </c>
       <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>3700</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1271,8 +1291,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
@@ -1280,14 +1300,17 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-200</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E17" s="3">
         <v>9200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>7800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-1800</v>
       </c>
       <c r="Q18" s="3">
         <v>-1800</v>
       </c>
       <c r="R18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,20 +1626,20 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1613,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
@@ -1646,105 +1680,111 @@
         <v>-100</v>
       </c>
       <c r="W20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
-      </c>
-      <c r="W21" s="3">
-        <v>1000</v>
       </c>
       <c r="X21" s="3">
         <v>1000</v>
       </c>
       <c r="Y21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z21" s="3">
         <v>100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1755,7 +1795,7 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1764,7 +1804,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1782,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1800,10 +1840,10 @@
         <v>100</v>
       </c>
       <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
       </c>
       <c r="W22" s="3">
         <v>100</v>
@@ -1823,88 +1863,94 @@
       <c r="AB22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-2000</v>
       </c>
       <c r="Q23" s="3">
         <v>-2000</v>
       </c>
       <c r="R23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1918,11 +1964,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1930,32 +1976,32 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-600</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-500</v>
       </c>
       <c r="P24" s="3">
         <v>-500</v>
       </c>
       <c r="Q24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R24" s="3">
         <v>-400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1966,11 +2012,11 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-5900</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5800</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-4400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5800</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2321,43 +2382,43 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>100</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>400</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>4700</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>1000</v>
       </c>
       <c r="R29" s="3">
         <v>1000</v>
       </c>
       <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>10</v>
@@ -2365,11 +2426,11 @@
       <c r="V29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>10</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,20 +2622,20 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2573,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
@@ -2606,105 +2676,111 @@
         <v>100</v>
       </c>
       <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-4300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1100</v>
       </c>
       <c r="M33" s="3">
         <v>-1100</v>
       </c>
       <c r="N33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O33" s="3">
         <v>3700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-4300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1100</v>
       </c>
       <c r="M35" s="3">
         <v>-1100</v>
       </c>
       <c r="N35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O35" s="3">
         <v>3700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>11700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1200</v>
       </c>
       <c r="Q41" s="3">
         <v>1200</v>
       </c>
       <c r="R41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,88 +3258,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E43" s="3">
         <v>4200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1600</v>
       </c>
       <c r="N43" s="3">
         <v>1600</v>
       </c>
       <c r="O43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P43" s="3">
         <v>2800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3600</v>
-      </c>
-      <c r="R43" s="3">
-        <v>4200</v>
       </c>
       <c r="S43" s="3">
         <v>4200</v>
       </c>
       <c r="T43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U43" s="3">
         <v>2800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,168 +3424,177 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
         <v>900</v>
       </c>
       <c r="F45" s="3">
+        <v>900</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>2600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1700</v>
-      </c>
-      <c r="W45" s="3">
-        <v>1800</v>
       </c>
       <c r="X45" s="3">
         <v>1800</v>
       </c>
       <c r="Y45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z45" s="3">
         <v>1600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E46" s="3">
         <v>16800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6500</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>9200</v>
       </c>
       <c r="Z46" s="3">
         <v>9200</v>
       </c>
       <c r="AA46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="AB46" s="3">
         <v>11900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3530,28 +3635,28 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>400</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>300</v>
       </c>
       <c r="R47" s="3">
         <v>300</v>
       </c>
       <c r="S47" s="3">
+        <v>300</v>
+      </c>
+      <c r="T47" s="3">
         <v>400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>600</v>
-      </c>
-      <c r="U47" s="3">
-        <v>700</v>
       </c>
       <c r="V47" s="3">
         <v>700</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>10</v>
+      <c r="W47" s="3">
+        <v>700</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>10</v>
@@ -3562,31 +3667,34 @@
       <c r="Z47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
+      <c r="AA47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>400</v>
@@ -3595,22 +3703,22 @@
         <v>400</v>
       </c>
       <c r="K48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
       </c>
       <c r="M48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
       </c>
       <c r="O48" s="3">
+        <v>600</v>
+      </c>
+      <c r="P48" s="3">
         <v>300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
@@ -3619,117 +3727,123 @@
         <v>200</v>
       </c>
       <c r="S48" s="3">
+        <v>200</v>
+      </c>
+      <c r="T48" s="3">
         <v>2000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E49" s="3">
         <v>44000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>44400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>45000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>45400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>46000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>24600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>24100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>23500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>24600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>26400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>26100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>25900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>25700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>26000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>26200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>26600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>27100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="E52" s="3">
         <v>1200</v>
       </c>
       <c r="F52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G52" s="3">
         <v>1000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>900</v>
       </c>
       <c r="H52" s="3">
         <v>900</v>
       </c>
       <c r="I52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J52" s="3">
         <v>1000</v>
       </c>
       <c r="K52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L52" s="3">
         <v>900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1700</v>
       </c>
       <c r="M52" s="3">
         <v>1700</v>
       </c>
       <c r="N52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O52" s="3">
         <v>1400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>800</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>300</v>
       </c>
       <c r="R52" s="3">
         <v>300</v>
       </c>
       <c r="S52" s="3">
+        <v>300</v>
+      </c>
+      <c r="T52" s="3">
         <v>400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>400</v>
-      </c>
-      <c r="V52" s="3">
-        <v>600</v>
       </c>
       <c r="W52" s="3">
         <v>600</v>
       </c>
       <c r="X52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y52" s="3">
         <v>700</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>600</v>
       </c>
       <c r="Z52" s="3">
         <v>600</v>
       </c>
       <c r="AA52" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB52" s="3">
         <v>700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E54" s="3">
         <v>62200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>57000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>60000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>61800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>62400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>37800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>28300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>33100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>36100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>37100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>34500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>37500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>38100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>41600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,135 +4318,139 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>900</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>1100</v>
       </c>
       <c r="AB57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>2300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1500</v>
       </c>
       <c r="L58" s="3">
         <v>1500</v>
       </c>
       <c r="M58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1600</v>
-      </c>
-      <c r="R58" s="3">
-        <v>600</v>
       </c>
       <c r="S58" s="3">
         <v>600</v>
@@ -4340,256 +4474,268 @@
         <v>600</v>
       </c>
       <c r="Z58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AA58" s="3">
         <v>700</v>
       </c>
       <c r="AB58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E59" s="3">
         <v>17600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>10900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>10600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>10000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>9700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E60" s="3">
         <v>18600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>12100</v>
       </c>
       <c r="S60" s="3">
         <v>12100</v>
       </c>
       <c r="T60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="U60" s="3">
         <v>10000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>12200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>12800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E61" s="3">
         <v>9200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>800</v>
       </c>
       <c r="M61" s="3">
+        <v>800</v>
+      </c>
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>3100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4597,37 +4743,37 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>4300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>300</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
       </c>
       <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
-      </c>
-      <c r="L62" s="3">
-        <v>300</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
       </c>
       <c r="N62" s="3">
+        <v>300</v>
+      </c>
+      <c r="O62" s="3">
         <v>400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -4636,40 +4782,43 @@
         <v>100</v>
       </c>
       <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
         <v>1200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E66" s="3">
         <v>28100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>28500</v>
       </c>
       <c r="F66" s="3">
         <v>28500</v>
       </c>
       <c r="G66" s="3">
+        <v>28500</v>
+      </c>
+      <c r="H66" s="3">
         <v>27800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>28800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>16500</v>
       </c>
       <c r="R66" s="3">
         <v>16500</v>
       </c>
       <c r="S66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="T66" s="3">
         <v>16900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>18400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>19400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>19200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5223,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>8700</v>
@@ -5241,7 +5409,7 @@
         <v>8700</v>
       </c>
       <c r="W70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="X70" s="3">
         <v>8800</v>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-94900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-91700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-85700</v>
       </c>
       <c r="G72" s="3">
         <v>-85700</v>
       </c>
       <c r="H72" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="I72" s="3">
         <v>-85600</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-81300</v>
       </c>
       <c r="J72" s="3">
         <v>-81300</v>
       </c>
       <c r="K72" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-79100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-77900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-76900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-75700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-79400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-76800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-76200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-76600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-73500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-72800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-71300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-72200</v>
       </c>
       <c r="Y72" s="3">
         <v>-72200</v>
       </c>
       <c r="Z72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-71100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-69000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E76" s="3">
         <v>34200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>31400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>34000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>33600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>30900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>30600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-4300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1100</v>
       </c>
       <c r="M81" s="3">
         <v>-1100</v>
       </c>
       <c r="N81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O81" s="3">
         <v>3700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,13 +6211,14 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>2800</v>
       </c>
       <c r="E83" s="3">
         <v>500</v>
@@ -6028,10 +6227,10 @@
         <v>500</v>
       </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>500</v>
       </c>
       <c r="I83" s="3">
         <v>500</v>
@@ -6040,49 +6239,49 @@
         <v>500</v>
       </c>
       <c r="K83" s="3">
+        <v>500</v>
+      </c>
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
       </c>
       <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>1000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>600</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>800</v>
       </c>
       <c r="Z83" s="3">
         <v>800</v>
@@ -6091,10 +6290,13 @@
         <v>800</v>
       </c>
       <c r="AB83" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>3400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,46 +6823,47 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>10</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6678,13 +6899,16 @@
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,70 +7070,73 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-500</v>
       </c>
       <c r="G94" s="3">
         <v>-500</v>
       </c>
       <c r="H94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I94" s="3">
         <v>-12700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>10800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-900</v>
       </c>
       <c r="Q94" s="3">
         <v>-900</v>
       </c>
       <c r="R94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-700</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-500</v>
       </c>
       <c r="X94" s="3">
         <v>-500</v>
@@ -6915,16 +7145,19 @@
         <v>-500</v>
       </c>
       <c r="Z94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,55 +7516,58 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E100" s="3">
         <v>8100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I100" s="3">
         <v>9800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>14600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>-600</v>
       </c>
       <c r="L100" s="3">
         <v>-600</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>800</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-200</v>
       </c>
       <c r="S100" s="3">
         <v>-200</v>
@@ -7330,31 +7576,34 @@
         <v>-200</v>
       </c>
       <c r="U100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E102" s="3">
         <v>5800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>STRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,384 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E8" s="3">
         <v>6700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2900</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3000</v>
       </c>
       <c r="L8" s="3">
         <v>3000</v>
       </c>
       <c r="M8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N8" s="3">
         <v>2600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6400</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>5900</v>
       </c>
       <c r="AA8" s="3">
         <v>5900</v>
       </c>
       <c r="AB8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="AC8" s="3">
         <v>6400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E9" s="3">
         <v>8400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3600</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3200</v>
       </c>
       <c r="G9" s="3">
         <v>3200</v>
       </c>
       <c r="H9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I9" s="3">
         <v>3100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2600</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1400</v>
       </c>
       <c r="K9" s="3">
         <v>1400</v>
       </c>
       <c r="L9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M9" s="3">
         <v>1600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1600</v>
       </c>
       <c r="Q9" s="3">
         <v>1600</v>
       </c>
       <c r="R9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S9" s="3">
         <v>1100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2300</v>
-      </c>
-      <c r="X9" s="3">
-        <v>2400</v>
       </c>
       <c r="Y9" s="3">
         <v>2400</v>
       </c>
       <c r="Z9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA9" s="3">
         <v>2600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="3">
         <v>-1700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2700</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2900</v>
       </c>
       <c r="I10" s="3">
         <v>2900</v>
       </c>
       <c r="J10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1500</v>
       </c>
       <c r="O10" s="3">
         <v>1500</v>
       </c>
       <c r="P10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>7100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,31 +1072,32 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1000</v>
       </c>
       <c r="K12" s="3">
         <v>1000</v>
@@ -1093,58 +1106,61 @@
         <v>1000</v>
       </c>
       <c r="M12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="3">
         <v>800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>600</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1000</v>
       </c>
       <c r="U12" s="3">
         <v>1000</v>
       </c>
       <c r="V12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W12" s="3">
         <v>2300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1700</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,65 +1242,68 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
       <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>3700</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1294,8 +1313,8 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
@@ -1303,14 +1322,17 @@
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-200</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8700</v>
+        <v>8300</v>
       </c>
       <c r="E17" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="F17" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G17" s="3">
         <v>8600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>13300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>7800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>7400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2000</v>
+        <v>-3000</v>
       </c>
       <c r="E18" s="3">
-        <v>-3000</v>
+        <v>-1900</v>
       </c>
       <c r="F18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1800</v>
       </c>
       <c r="R18" s="3">
         <v>-1800</v>
       </c>
       <c r="S18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,52 +1649,53 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
@@ -1683,108 +1716,114 @@
         <v>-100</v>
       </c>
       <c r="X20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
-      </c>
-      <c r="X21" s="3">
-        <v>1000</v>
       </c>
       <c r="Y21" s="3">
         <v>1000</v>
       </c>
       <c r="Z21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA21" s="3">
         <v>100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1798,7 +1837,7 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1807,7 +1846,7 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1825,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1843,10 +1882,10 @@
         <v>100</v>
       </c>
       <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
-      </c>
-      <c r="W22" s="3">
-        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
@@ -1866,96 +1905,102 @@
       <c r="AC22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-2000</v>
       </c>
       <c r="R23" s="3">
         <v>-2000</v>
       </c>
       <c r="S23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1967,11 +2012,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1979,32 +2024,32 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-600</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-500</v>
       </c>
       <c r="Q24" s="3">
         <v>-500</v>
       </c>
       <c r="R24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S24" s="3">
         <v>-400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
@@ -2015,11 +2060,11 @@
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
@@ -2032,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>5800</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-4400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>5800</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,13 +2421,16 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2385,43 +2445,43 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>400</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>4700</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>1400</v>
-      </c>
-      <c r="R29" s="3">
-        <v>1000</v>
       </c>
       <c r="S29" s="3">
         <v>1000</v>
       </c>
       <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>10</v>
@@ -2429,11 +2489,11 @@
       <c r="W29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>10</v>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,52 +2679,55 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>400</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>400</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
@@ -2679,108 +2748,114 @@
         <v>100</v>
       </c>
       <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-4300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1100</v>
       </c>
       <c r="N33" s="3">
         <v>-1100</v>
       </c>
       <c r="O33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P33" s="3">
         <v>3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-4300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1100</v>
       </c>
       <c r="N35" s="3">
         <v>-1100</v>
       </c>
       <c r="O35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P35" s="3">
         <v>3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>11700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>1200</v>
       </c>
       <c r="R41" s="3">
         <v>1200</v>
       </c>
       <c r="S41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T41" s="3">
         <v>2000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,91 +3350,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E43" s="3">
         <v>8700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1600</v>
       </c>
       <c r="O43" s="3">
         <v>1600</v>
       </c>
       <c r="P43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3600</v>
-      </c>
-      <c r="S43" s="3">
-        <v>4200</v>
       </c>
       <c r="T43" s="3">
         <v>4200</v>
       </c>
       <c r="U43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="V43" s="3">
         <v>2800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3436,165 +3534,171 @@
         <v>700</v>
       </c>
       <c r="E45" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>900</v>
       </c>
       <c r="G45" s="3">
+        <v>900</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>2100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>2600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1700</v>
-      </c>
-      <c r="X45" s="3">
-        <v>1800</v>
       </c>
       <c r="Y45" s="3">
         <v>1800</v>
       </c>
       <c r="Z45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AA45" s="3">
         <v>1600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E46" s="3">
         <v>16000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>19700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6500</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>9200</v>
       </c>
       <c r="AA46" s="3">
         <v>9200</v>
       </c>
       <c r="AB46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="AC46" s="3">
         <v>11900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3638,28 +3742,28 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>400</v>
-      </c>
-      <c r="R47" s="3">
-        <v>300</v>
       </c>
       <c r="S47" s="3">
         <v>300</v>
       </c>
       <c r="T47" s="3">
+        <v>300</v>
+      </c>
+      <c r="U47" s="3">
         <v>400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>600</v>
-      </c>
-      <c r="V47" s="3">
-        <v>700</v>
       </c>
       <c r="W47" s="3">
         <v>700</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>10</v>
+      <c r="X47" s="3">
+        <v>700</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>10</v>
@@ -3670,14 +3774,17 @@
       <c r="AA47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB47" s="3">
-        <v>0</v>
+      <c r="AB47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3685,19 +3792,19 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>400</v>
@@ -3706,22 +3813,22 @@
         <v>400</v>
       </c>
       <c r="L48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M48" s="3">
         <v>500</v>
       </c>
       <c r="N48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O48" s="3">
         <v>600</v>
       </c>
       <c r="P48" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
@@ -3730,120 +3837,126 @@
         <v>200</v>
       </c>
       <c r="T48" s="3">
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
         <v>2000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E49" s="3">
         <v>43700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>44000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>44400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>45000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>45400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>46000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>24600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>24100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>23500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>24600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>26400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>26100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>25900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>25700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>26000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>26200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>26600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>27100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1200</v>
       </c>
       <c r="F52" s="3">
         <v>1200</v>
       </c>
       <c r="G52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H52" s="3">
         <v>1000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>900</v>
       </c>
       <c r="I52" s="3">
         <v>900</v>
       </c>
       <c r="J52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K52" s="3">
         <v>1000</v>
       </c>
       <c r="L52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M52" s="3">
         <v>900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1700</v>
       </c>
       <c r="N52" s="3">
         <v>1700</v>
       </c>
       <c r="O52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P52" s="3">
         <v>1400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>800</v>
-      </c>
-      <c r="R52" s="3">
-        <v>300</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
       </c>
       <c r="T52" s="3">
+        <v>300</v>
+      </c>
+      <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>400</v>
-      </c>
-      <c r="W52" s="3">
-        <v>600</v>
       </c>
       <c r="X52" s="3">
         <v>600</v>
       </c>
       <c r="Y52" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z52" s="3">
         <v>700</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>600</v>
       </c>
       <c r="AA52" s="3">
         <v>600</v>
       </c>
       <c r="AB52" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC52" s="3">
         <v>700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E54" s="3">
         <v>61500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>62200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>57000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>60000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>61800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>62400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>26000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>31700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>33100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>36100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>37300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>37100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>34500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>37500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>38100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>41600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,141 +4448,145 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>900</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>1100</v>
       </c>
       <c r="AC57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>2300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1500</v>
       </c>
       <c r="M58" s="3">
         <v>1500</v>
       </c>
       <c r="N58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>600</v>
       </c>
       <c r="T58" s="3">
         <v>600</v>
@@ -4477,306 +4610,318 @@
         <v>600</v>
       </c>
       <c r="AA58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AB58" s="3">
         <v>700</v>
       </c>
       <c r="AC58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E59" s="3">
         <v>15400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>10900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>10600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>10400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>10000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>9700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>10900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E60" s="3">
         <v>16800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>12100</v>
       </c>
       <c r="T60" s="3">
         <v>12100</v>
       </c>
       <c r="U60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="V60" s="3">
         <v>10000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>12200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>11300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>12800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E61" s="3">
         <v>9000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>800</v>
       </c>
       <c r="N61" s="3">
+        <v>800</v>
+      </c>
+      <c r="O61" s="3">
         <v>1200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>3100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
       </c>
       <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>4300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>11600</v>
-      </c>
-      <c r="J62" s="3">
-        <v>300</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
       </c>
       <c r="L62" s="3">
+        <v>300</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
-      </c>
-      <c r="M62" s="3">
-        <v>300</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
       </c>
       <c r="O62" s="3">
+        <v>300</v>
+      </c>
+      <c r="P62" s="3">
         <v>400</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -4785,40 +4930,43 @@
         <v>100</v>
       </c>
       <c r="S62" s="3">
+        <v>100</v>
+      </c>
+      <c r="T62" s="3">
         <v>1200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>3000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E66" s="3">
         <v>26000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>28100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>28500</v>
       </c>
       <c r="G66" s="3">
         <v>28500</v>
       </c>
       <c r="H66" s="3">
+        <v>28500</v>
+      </c>
+      <c r="I66" s="3">
         <v>27800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13000</v>
-      </c>
-      <c r="R66" s="3">
-        <v>16500</v>
       </c>
       <c r="S66" s="3">
         <v>16500</v>
       </c>
       <c r="T66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="U66" s="3">
         <v>16900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>17600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>18400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>16100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>19400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>19200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>20900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5394,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>8700</v>
@@ -5412,7 +5579,7 @@
         <v>8700</v>
       </c>
       <c r="X70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="Y70" s="3">
         <v>8800</v>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-99900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-97000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-94900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-91700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-85700</v>
       </c>
       <c r="H72" s="3">
         <v>-85700</v>
       </c>
       <c r="I72" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="J72" s="3">
         <v>-85600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-81300</v>
       </c>
       <c r="K72" s="3">
         <v>-81300</v>
       </c>
       <c r="L72" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-79100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-77900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-76900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-75700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-79400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-77000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-76800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-76200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-76600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-73500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-72800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-71300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-72200</v>
       </c>
       <c r="Z72" s="3">
         <v>-72200</v>
       </c>
       <c r="AA72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-71100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-69000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>33100</v>
+      </c>
+      <c r="E76" s="3">
         <v>35500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>34200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>31400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>34000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>30900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-4300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1100</v>
       </c>
       <c r="N81" s="3">
         <v>-1100</v>
       </c>
       <c r="O81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P81" s="3">
         <v>3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,16 +6409,17 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E83" s="3">
         <v>2800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>500</v>
       </c>
       <c r="F83" s="3">
         <v>500</v>
@@ -6230,10 +6428,10 @@
         <v>500</v>
       </c>
       <c r="H83" s="3">
+        <v>500</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
@@ -6242,49 +6440,49 @@
         <v>500</v>
       </c>
       <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>300</v>
       </c>
       <c r="U83" s="3">
         <v>300</v>
       </c>
       <c r="V83" s="3">
+        <v>300</v>
+      </c>
+      <c r="W83" s="3">
         <v>1000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>600</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>800</v>
       </c>
       <c r="AA83" s="3">
         <v>800</v>
@@ -6293,10 +6491,13 @@
         <v>800</v>
       </c>
       <c r="AC83" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>500</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>3400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,49 +7043,50 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-400</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
       </c>
       <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>10</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6902,13 +7122,16 @@
         <v>0</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,73 +7299,76 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-500</v>
       </c>
       <c r="H94" s="3">
         <v>-500</v>
       </c>
       <c r="I94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J94" s="3">
         <v>-12700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>10800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-900</v>
       </c>
       <c r="R94" s="3">
         <v>-900</v>
       </c>
       <c r="S94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-700</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-500</v>
       </c>
       <c r="Y94" s="3">
         <v>-500</v>
@@ -7148,16 +7377,19 @@
         <v>-500</v>
       </c>
       <c r="AA94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>1400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,58 +7761,61 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
         <v>9800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>14600</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-600</v>
       </c>
       <c r="M100" s="3">
         <v>-600</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>800</v>
-      </c>
-      <c r="S100" s="3">
-        <v>-200</v>
       </c>
       <c r="T100" s="3">
         <v>-200</v>
@@ -7579,31 +7824,34 @@
         <v>-200</v>
       </c>
       <c r="V100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>3100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-4000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STRM_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>STRM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E8" s="3">
         <v>5300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2900</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3000</v>
       </c>
       <c r="M8" s="3">
         <v>3000</v>
       </c>
       <c r="N8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O8" s="3">
         <v>2600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6400</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>5900</v>
       </c>
       <c r="AB8" s="3">
         <v>5900</v>
       </c>
       <c r="AC8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="AD8" s="3">
         <v>6400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3600</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3200</v>
       </c>
       <c r="H9" s="3">
         <v>3200</v>
       </c>
       <c r="I9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J9" s="3">
         <v>3100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1400</v>
       </c>
       <c r="L9" s="3">
         <v>1400</v>
       </c>
       <c r="M9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1600</v>
       </c>
       <c r="R9" s="3">
         <v>1600</v>
       </c>
       <c r="S9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T9" s="3">
         <v>1100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2300</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>2400</v>
       </c>
       <c r="Z9" s="3">
         <v>2400</v>
       </c>
       <c r="AA9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AB9" s="3">
         <v>2600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E10" s="3">
         <v>2500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-1700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2700</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2900</v>
       </c>
       <c r="J10" s="3">
         <v>2900</v>
       </c>
       <c r="K10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1500</v>
       </c>
       <c r="P10" s="3">
         <v>1500</v>
       </c>
       <c r="Q10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R10" s="3">
         <v>1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>7100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,34 +1086,35 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1500</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1300</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1000</v>
       </c>
       <c r="L12" s="3">
         <v>1000</v>
@@ -1109,58 +1123,61 @@
         <v>1000</v>
       </c>
       <c r="N12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>600</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1000</v>
       </c>
       <c r="V12" s="3">
         <v>1000</v>
       </c>
       <c r="W12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X12" s="3">
         <v>2300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1700</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,50 +1283,50 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
       </c>
       <c r="J14" s="3">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>3700</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
@@ -1316,8 +1336,8 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
@@ -1325,14 +1345,17 @@
       <c r="AB14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-200</v>
       </c>
-      <c r="AD14" s="3" t="s">
+      <c r="AE14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E17" s="3">
         <v>8300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>13300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>7800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>7400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2800</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-1800</v>
       </c>
       <c r="S18" s="3">
         <v>-1800</v>
       </c>
       <c r="T18" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,35 +1683,36 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1686,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
@@ -1719,116 +1753,122 @@
         <v>-100</v>
       </c>
       <c r="Y20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>100</v>
       </c>
-      <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2500</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>300</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>1000</v>
       </c>
       <c r="Z21" s="3">
         <v>1000</v>
       </c>
       <c r="AA21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB21" s="3">
         <v>100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1840,7 +1880,7 @@
         <v>200</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1849,7 +1889,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1867,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>100</v>
@@ -1885,10 +1925,10 @@
         <v>100</v>
       </c>
       <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
         <v>200</v>
-      </c>
-      <c r="X22" s="3">
-        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>100</v>
@@ -1908,103 +1948,109 @@
       <c r="AD22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-2000</v>
       </c>
       <c r="S23" s="3">
         <v>-2000</v>
       </c>
       <c r="T23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -2015,11 +2061,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -2027,32 +2073,32 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>-500</v>
       </c>
       <c r="R24" s="3">
         <v>-500</v>
       </c>
       <c r="S24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T24" s="3">
         <v>-400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -2063,11 +2109,11 @@
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>5800</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>5800</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,16 +2482,19 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2448,43 +2509,43 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>400</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>4700</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>1400</v>
-      </c>
-      <c r="S29" s="3">
-        <v>1000</v>
       </c>
       <c r="T29" s="3">
         <v>1000</v>
       </c>
       <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
+        <v>1000</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>10</v>
@@ -2492,11 +2553,11 @@
       <c r="X29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-5800</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>10</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,35 +2749,38 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2718,19 +2788,19 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
@@ -2751,111 +2821,117 @@
         <v>100</v>
       </c>
       <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-100</v>
       </c>
-      <c r="AD32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1100</v>
       </c>
       <c r="O33" s="3">
         <v>-1100</v>
       </c>
       <c r="P33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1100</v>
       </c>
       <c r="O35" s="3">
         <v>-1100</v>
       </c>
       <c r="P35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E41" s="3">
         <v>6000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
-      </c>
-      <c r="R41" s="3">
-        <v>1200</v>
       </c>
       <c r="S41" s="3">
         <v>1200</v>
       </c>
       <c r="T41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U41" s="3">
         <v>2000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,94 +3443,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>4800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1600</v>
       </c>
       <c r="P43" s="3">
         <v>1600</v>
       </c>
       <c r="Q43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R43" s="3">
         <v>2800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3600</v>
-      </c>
-      <c r="T43" s="3">
-        <v>4200</v>
       </c>
       <c r="U43" s="3">
         <v>4200</v>
       </c>
       <c r="V43" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W43" s="3">
         <v>2800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,180 +3621,189 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
       </c>
       <c r="F45" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G45" s="3">
         <v>900</v>
       </c>
       <c r="H45" s="3">
+        <v>900</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>2100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>2600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1700</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>1800</v>
       </c>
       <c r="Z45" s="3">
         <v>1800</v>
       </c>
       <c r="AA45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AB45" s="3">
         <v>1600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>1300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E46" s="3">
         <v>11500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>15200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6500</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>9200</v>
       </c>
       <c r="AB46" s="3">
         <v>9200</v>
       </c>
       <c r="AC46" s="3">
+        <v>9200</v>
+      </c>
+      <c r="AD46" s="3">
         <v>11900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3745,28 +3850,28 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>400</v>
-      </c>
-      <c r="S47" s="3">
-        <v>300</v>
       </c>
       <c r="T47" s="3">
         <v>300</v>
       </c>
       <c r="U47" s="3">
+        <v>300</v>
+      </c>
+      <c r="V47" s="3">
         <v>400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>600</v>
-      </c>
-      <c r="W47" s="3">
-        <v>700</v>
       </c>
       <c r="X47" s="3">
         <v>700</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>10</v>
+      <c r="Y47" s="3">
+        <v>700</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>10</v>
@@ -3777,14 +3882,17 @@
       <c r="AB47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC47" s="3">
-        <v>0</v>
+      <c r="AC47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3795,19 +3903,19 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>400</v>
@@ -3816,22 +3924,22 @@
         <v>400</v>
       </c>
       <c r="M48" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N48" s="3">
         <v>500</v>
       </c>
       <c r="O48" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P48" s="3">
         <v>600</v>
       </c>
       <c r="Q48" s="3">
+        <v>600</v>
+      </c>
+      <c r="R48" s="3">
         <v>300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
@@ -3840,123 +3948,129 @@
         <v>200</v>
       </c>
       <c r="U48" s="3">
+        <v>200</v>
+      </c>
+      <c r="V48" s="3">
         <v>2000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E49" s="3">
         <v>43300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>43700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>44000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>44400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>45000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>45400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>46000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>17300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>17700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>17800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>17700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>17600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>24600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>24100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>23500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>24600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>26400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>26100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>25900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>25700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>26000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>26200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>26600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>27100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>29700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1200</v>
       </c>
       <c r="G52" s="3">
         <v>1200</v>
       </c>
       <c r="H52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I52" s="3">
         <v>1000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>900</v>
       </c>
       <c r="J52" s="3">
         <v>900</v>
       </c>
       <c r="K52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L52" s="3">
         <v>1000</v>
       </c>
       <c r="M52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N52" s="3">
         <v>900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1700</v>
       </c>
       <c r="O52" s="3">
         <v>1700</v>
       </c>
       <c r="P52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>800</v>
-      </c>
-      <c r="S52" s="3">
-        <v>300</v>
       </c>
       <c r="T52" s="3">
         <v>300</v>
       </c>
       <c r="U52" s="3">
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
         <v>400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>400</v>
-      </c>
-      <c r="X52" s="3">
-        <v>600</v>
       </c>
       <c r="Y52" s="3">
         <v>600</v>
       </c>
       <c r="Z52" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA52" s="3">
         <v>700</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>600</v>
       </c>
       <c r="AB52" s="3">
         <v>600</v>
       </c>
       <c r="AC52" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD52" s="3">
         <v>700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E54" s="3">
         <v>56500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>61500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>62200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>57000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>60000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>61800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>62400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>40000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>28300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>28500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>31700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>31300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>31600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>31700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>33100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>36100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>37300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>37100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>34500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>37500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>38100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>41600</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>40100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,147 +4579,151 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>900</v>
-      </c>
-      <c r="AC57" s="3">
-        <v>1100</v>
       </c>
       <c r="AD57" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>2300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1500</v>
       </c>
       <c r="N58" s="3">
         <v>1500</v>
       </c>
       <c r="O58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>600</v>
       </c>
       <c r="U58" s="3">
         <v>600</v>
@@ -4613,318 +4747,330 @@
         <v>600</v>
       </c>
       <c r="AB58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AC58" s="3">
         <v>700</v>
       </c>
       <c r="AD58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE58" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E59" s="3">
         <v>13300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>15400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>13500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>12500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>10900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>10200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>10600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>8900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>10400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>10000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>9700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>10900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E60" s="3">
         <v>14400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>14700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>12100</v>
       </c>
       <c r="U60" s="3">
         <v>12100</v>
       </c>
       <c r="V60" s="3">
+        <v>12100</v>
+      </c>
+      <c r="W60" s="3">
         <v>10000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>12200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>11300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>12800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E61" s="3">
         <v>8700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>9500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>9700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>800</v>
       </c>
       <c r="O61" s="3">
+        <v>800</v>
+      </c>
+      <c r="P61" s="3">
         <v>1200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>3100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>300</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
       <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
         <v>4300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>4600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>11600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>300</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
       </c>
       <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
         <v>400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>300</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
       </c>
       <c r="P62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q62" s="3">
         <v>400</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
@@ -4933,40 +5079,43 @@
         <v>100</v>
       </c>
       <c r="T62" s="3">
+        <v>100</v>
+      </c>
+      <c r="U62" s="3">
         <v>1200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>3000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>3100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>3400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>3100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>3200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>3300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E66" s="3">
         <v>23400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>26000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>28100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>28500</v>
       </c>
       <c r="H66" s="3">
         <v>28500</v>
       </c>
       <c r="I66" s="3">
+        <v>28500</v>
+      </c>
+      <c r="J66" s="3">
         <v>27800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13000</v>
-      </c>
-      <c r="S66" s="3">
-        <v>16500</v>
       </c>
       <c r="T66" s="3">
         <v>16500</v>
       </c>
       <c r="U66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="V66" s="3">
         <v>16900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>17700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>17600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>18400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>16100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>19400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>19200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>20900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>18900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5564,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>8700</v>
@@ -5582,7 +5750,7 @@
         <v>8700</v>
       </c>
       <c r="Y70" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="Z70" s="3">
         <v>8800</v>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>8800</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-102400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-99900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-97000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-94900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-91700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-85700</v>
       </c>
       <c r="I72" s="3">
         <v>-85700</v>
       </c>
       <c r="J72" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-85600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-81300</v>
       </c>
       <c r="L72" s="3">
         <v>-81300</v>
       </c>
       <c r="M72" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-79100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-77900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-76900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-75700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-79400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-77000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-76800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-76200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-76600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-73500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-72800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-71300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-72100</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-72200</v>
       </c>
       <c r="AA72" s="3">
         <v>-72200</v>
       </c>
       <c r="AB72" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-71100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-69000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E76" s="3">
         <v>33100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>35500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>34200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1100</v>
       </c>
       <c r="O81" s="3">
         <v>-1100</v>
       </c>
       <c r="P81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6419,10 +6618,10 @@
         <v>1100</v>
       </c>
       <c r="E83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F83" s="3">
         <v>2800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>500</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -6431,10 +6630,10 @@
         <v>500</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -6443,49 +6642,49 @@
         <v>500</v>
       </c>
       <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>200</v>
-      </c>
-      <c r="U83" s="3">
-        <v>300</v>
       </c>
       <c r="V83" s="3">
         <v>300</v>
       </c>
       <c r="W83" s="3">
+        <v>300</v>
+      </c>
+      <c r="X83" s="3">
         <v>1000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>600</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>800</v>
       </c>
       <c r="AB83" s="3">
         <v>800</v>
@@ -6494,10 +6693,13 @@
         <v>800</v>
       </c>
       <c r="AD83" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE83" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>3400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,52 +7264,53 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-400</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
       </c>
       <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="M91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>10</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -7125,13 +7346,16 @@
         <v>0</v>
       </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,76 +7529,79 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-500</v>
       </c>
       <c r="I94" s="3">
         <v>-500</v>
       </c>
       <c r="J94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-12700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>10800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-900</v>
       </c>
       <c r="S94" s="3">
         <v>-900</v>
       </c>
       <c r="T94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-700</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-500</v>
       </c>
       <c r="Z94" s="3">
         <v>-500</v>
@@ -7380,16 +7610,19 @@
         <v>-500</v>
       </c>
       <c r="AB94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>1400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,61 +8007,64 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
       </c>
       <c r="J100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K100" s="3">
         <v>9800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>14600</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-600</v>
       </c>
       <c r="N100" s="3">
         <v>-600</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>800</v>
-      </c>
-      <c r="T100" s="3">
-        <v>-200</v>
       </c>
       <c r="U100" s="3">
         <v>-200</v>
@@ -7827,31 +8073,34 @@
         <v>-200</v>
       </c>
       <c r="W100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>3100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-4000</v>
       </c>
     </row>
